--- a/config/project/board/BoardConfig.xlsx
+++ b/config/project/board/BoardConfig.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="123">
   <si>
     <t>组序号</t>
   </si>
@@ -1132,6 +1132,106 @@
   </si>
   <si>
     <t>合格</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池电压</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2V</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAM读写测试(fr)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时钟测试(rtc)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>选枪按键测试(key)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下枪1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下枪2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>485及读卡器口测试</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARD1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARD2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPRS功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED板测试</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPK测试</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络测试</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>主从通讯</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>看门狗功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级程序</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级正确BOOT程序</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级正确应用程序</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>看门狗出厂设备</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>看门狗能强制复位</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>fram</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1701,7 +1801,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1745,13 +1845,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2108,10 +2223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" workbookViewId="0">
-      <selection activeCell="G99" sqref="G99"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2120,7 +2235,7 @@
     <col min="2" max="2" width="26.1796875" style="8" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="8" customWidth="1"/>
     <col min="4" max="4" width="10.26953125" customWidth="1"/>
-    <col min="5" max="5" width="39.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.36328125" style="16" customWidth="1"/>
     <col min="6" max="6" width="18.36328125" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.36328125" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.26953125" customWidth="1"/>
@@ -2160,7 +2275,7 @@
       <c r="D2" s="9">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="15" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -2176,12 +2291,12 @@
         <v>27</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="D3" s="9">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="15" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -2202,7 +2317,7 @@
       <c r="D4" s="9">
         <v>3</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="14" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -2213,17 +2328,17 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="18" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="9">
         <v>4</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="14" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -2234,13 +2349,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="9">
         <v>5</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="14" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -2251,13 +2366,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="9">
         <v>6</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="14" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -2269,16 +2384,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="9">
         <v>7</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="14" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -2289,17 +2404,17 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="9">
         <v>8</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -2310,13 +2425,13 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="9">
         <v>9</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -2327,13 +2442,13 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="9">
         <v>10</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="14" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -2344,13 +2459,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="9">
         <v>11</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="14" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -2361,13 +2476,13 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="9">
         <v>12</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -2378,13 +2493,13 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="9">
         <v>13</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="14" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -2395,13 +2510,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="9">
         <v>14</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="14" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -2412,13 +2527,13 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="9">
         <v>15</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -2429,13 +2544,13 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="9">
         <v>16</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -2446,13 +2561,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="9">
         <v>17</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="14" t="s">
         <v>45</v>
       </c>
       <c r="F18" s="5" t="s">
@@ -2463,13 +2578,13 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="9">
         <v>18</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="14" t="s">
         <v>46</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -2480,13 +2595,13 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="9">
         <v>19</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -2497,13 +2612,13 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="9">
         <v>20</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="14" t="s">
         <v>48</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -2514,13 +2629,13 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="9">
         <v>21</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="14" t="s">
         <v>49</v>
       </c>
       <c r="F22" s="5" t="s">
@@ -2531,13 +2646,13 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="9">
         <v>22</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="14" t="s">
         <v>50</v>
       </c>
       <c r="F23" s="5" t="s">
@@ -2548,13 +2663,13 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="9">
         <v>23</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="14" t="s">
         <v>51</v>
       </c>
       <c r="F24" s="5" t="s">
@@ -2565,17 +2680,17 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="9">
         <v>24</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F25" s="5" t="s">
@@ -2586,13 +2701,13 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="9">
         <v>25</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F26" s="5" t="s">
@@ -2603,13 +2718,13 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="9">
         <v>26</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="14" t="s">
         <v>38</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -2620,13 +2735,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="9">
         <v>27</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="14" t="s">
         <v>39</v>
       </c>
       <c r="F28" s="5" t="s">
@@ -2637,13 +2752,13 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="9">
         <v>28</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F29" s="5" t="s">
@@ -2654,13 +2769,13 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="9">
         <v>29</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="14" t="s">
         <v>41</v>
       </c>
       <c r="F30" s="5" t="s">
@@ -2671,13 +2786,13 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="9">
         <v>30</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="14" t="s">
         <v>42</v>
       </c>
       <c r="F31" s="5" t="s">
@@ -2688,13 +2803,13 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="9">
         <v>31</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F32" s="5" t="s">
@@ -2705,13 +2820,13 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="9">
         <v>32</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F33" s="5" t="s">
@@ -2722,13 +2837,13 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="9">
         <v>33</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="14" t="s">
         <v>45</v>
       </c>
       <c r="F34" s="5" t="s">
@@ -2739,13 +2854,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="9">
         <v>34</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="14" t="s">
         <v>46</v>
       </c>
       <c r="F35" s="5" t="s">
@@ -2756,13 +2871,13 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="9">
         <v>35</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F36" s="5" t="s">
@@ -2773,13 +2888,13 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="9">
         <v>36</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="14" t="s">
         <v>48</v>
       </c>
       <c r="F37" s="5" t="s">
@@ -2790,13 +2905,13 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="9">
         <v>37</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="14" t="s">
         <v>49</v>
       </c>
       <c r="F38" s="5" t="s">
@@ -2807,13 +2922,13 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="9">
         <v>38</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="14" t="s">
         <v>50</v>
       </c>
       <c r="F39" s="5" t="s">
@@ -2824,13 +2939,13 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="9">
         <v>39</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="14" t="s">
         <v>51</v>
       </c>
       <c r="F40" s="5" t="s">
@@ -2841,17 +2956,17 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="9">
         <v>40</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F41" s="5" t="s">
@@ -2862,13 +2977,13 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
       <c r="D42" s="9">
         <v>41</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="14" t="s">
         <v>56</v>
       </c>
       <c r="F42" s="5" t="s">
@@ -2879,13 +2994,13 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="9">
         <v>42</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="14" t="s">
         <v>57</v>
       </c>
       <c r="F43" s="5" t="s">
@@ -2896,13 +3011,13 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="9">
         <v>43</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F44" s="5" t="s">
@@ -2913,13 +3028,13 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
       <c r="D45" s="9">
         <v>44</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="14" t="s">
         <v>59</v>
       </c>
       <c r="F45" s="5" t="s">
@@ -2930,13 +3045,13 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
       <c r="D46" s="9">
         <v>45</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="14" t="s">
         <v>60</v>
       </c>
       <c r="F46" s="5" t="s">
@@ -2947,13 +3062,13 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
       <c r="D47" s="9">
         <v>46</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="14" t="s">
         <v>61</v>
       </c>
       <c r="F47" s="5" t="s">
@@ -2964,13 +3079,13 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="9">
         <v>47</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="14" t="s">
         <v>62</v>
       </c>
       <c r="F48" s="5" t="s">
@@ -2981,13 +3096,13 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
       <c r="D49" s="9">
         <v>48</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="14" t="s">
         <v>63</v>
       </c>
       <c r="F49" s="5" t="s">
@@ -2998,13 +3113,13 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
       <c r="D50" s="9">
         <v>49</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="14" t="s">
         <v>64</v>
       </c>
       <c r="F50" s="5" t="s">
@@ -3015,13 +3130,13 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
       <c r="D51" s="9">
         <v>50</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E51" s="14" t="s">
         <v>65</v>
       </c>
       <c r="F51" s="5" t="s">
@@ -3032,13 +3147,13 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
       <c r="D52" s="9">
         <v>51</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="14" t="s">
         <v>66</v>
       </c>
       <c r="F52" s="5" t="s">
@@ -3049,13 +3164,13 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
       <c r="D53" s="9">
         <v>52</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="E53" s="14" t="s">
         <v>67</v>
       </c>
       <c r="F53" s="5" t="s">
@@ -3066,13 +3181,13 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
       <c r="D54" s="9">
         <v>53</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="E54" s="14" t="s">
         <v>68</v>
       </c>
       <c r="F54" s="5" t="s">
@@ -3083,13 +3198,13 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="9">
         <v>54</v>
       </c>
-      <c r="E55" s="12" t="s">
+      <c r="E55" s="14" t="s">
         <v>69</v>
       </c>
       <c r="F55" s="5" t="s">
@@ -3100,13 +3215,13 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
       <c r="D56" s="9">
         <v>55</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="14" t="s">
         <v>70</v>
       </c>
       <c r="F56" s="5" t="s">
@@ -3117,17 +3232,17 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16" t="s">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="9">
         <v>56</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F57" s="5" t="s">
@@ -3138,13 +3253,13 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
       <c r="D58" s="9">
         <v>57</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="E58" s="14" t="s">
         <v>56</v>
       </c>
       <c r="F58" s="5" t="s">
@@ -3155,13 +3270,13 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
       <c r="D59" s="9">
         <v>58</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="E59" s="14" t="s">
         <v>57</v>
       </c>
       <c r="F59" s="5" t="s">
@@ -3172,13 +3287,13 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
       <c r="D60" s="9">
         <v>59</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="E60" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F60" s="5" t="s">
@@ -3189,13 +3304,13 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
       <c r="D61" s="9">
         <v>60</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E61" s="14" t="s">
         <v>59</v>
       </c>
       <c r="F61" s="5" t="s">
@@ -3206,13 +3321,13 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="9">
         <v>61</v>
       </c>
-      <c r="E62" s="12" t="s">
+      <c r="E62" s="14" t="s">
         <v>60</v>
       </c>
       <c r="F62" s="5" t="s">
@@ -3223,13 +3338,13 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
       <c r="D63" s="9">
         <v>62</v>
       </c>
-      <c r="E63" s="12" t="s">
+      <c r="E63" s="14" t="s">
         <v>61</v>
       </c>
       <c r="F63" s="5" t="s">
@@ -3240,13 +3355,13 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
       <c r="D64" s="9">
         <v>63</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="E64" s="14" t="s">
         <v>62</v>
       </c>
       <c r="F64" s="5" t="s">
@@ -3257,13 +3372,13 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
       <c r="D65" s="9">
         <v>64</v>
       </c>
-      <c r="E65" s="12" t="s">
+      <c r="E65" s="14" t="s">
         <v>63</v>
       </c>
       <c r="F65" s="5" t="s">
@@ -3274,13 +3389,13 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
       <c r="D66" s="9">
         <v>65</v>
       </c>
-      <c r="E66" s="12" t="s">
+      <c r="E66" s="14" t="s">
         <v>64</v>
       </c>
       <c r="F66" s="5" t="s">
@@ -3291,13 +3406,13 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
       <c r="D67" s="9">
         <v>66</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="E67" s="14" t="s">
         <v>65</v>
       </c>
       <c r="F67" s="5" t="s">
@@ -3308,13 +3423,13 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
       <c r="D68" s="9">
         <v>67</v>
       </c>
-      <c r="E68" s="12" t="s">
+      <c r="E68" s="14" t="s">
         <v>66</v>
       </c>
       <c r="F68" s="5" t="s">
@@ -3325,13 +3440,13 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="9">
         <v>68</v>
       </c>
-      <c r="E69" s="12" t="s">
+      <c r="E69" s="14" t="s">
         <v>67</v>
       </c>
       <c r="F69" s="5" t="s">
@@ -3342,13 +3457,13 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="16"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
       <c r="D70" s="9">
         <v>69</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="E70" s="14" t="s">
         <v>68</v>
       </c>
       <c r="F70" s="5" t="s">
@@ -3359,13 +3474,13 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
       <c r="D71" s="9">
         <v>70</v>
       </c>
-      <c r="E71" s="12" t="s">
+      <c r="E71" s="14" t="s">
         <v>69</v>
       </c>
       <c r="F71" s="5" t="s">
@@ -3376,13 +3491,13 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
       <c r="D72" s="9">
         <v>71</v>
       </c>
-      <c r="E72" s="12" t="s">
+      <c r="E72" s="14" t="s">
         <v>70</v>
       </c>
       <c r="F72" s="5" t="s">
@@ -3393,15 +3508,17 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16" t="s">
+      <c r="A73" s="17"/>
+      <c r="B73" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D73" s="9"/>
-      <c r="E73" s="12" t="s">
+      <c r="D73" s="9">
+        <v>72</v>
+      </c>
+      <c r="E73" s="14" t="s">
         <v>72</v>
       </c>
       <c r="F73" s="5" t="s">
@@ -3412,11 +3529,13 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="12" t="s">
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="9">
+        <v>73</v>
+      </c>
+      <c r="E74" s="14" t="s">
         <v>73</v>
       </c>
       <c r="F74" s="5" t="s">
@@ -3427,11 +3546,13 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="16"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="12" t="s">
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="9">
+        <v>74</v>
+      </c>
+      <c r="E75" s="14" t="s">
         <v>74</v>
       </c>
       <c r="F75" s="5" t="s">
@@ -3442,11 +3563,13 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="12" t="s">
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="9">
+        <v>75</v>
+      </c>
+      <c r="E76" s="14" t="s">
         <v>75</v>
       </c>
       <c r="F76" s="5" t="s">
@@ -3457,15 +3580,17 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16" t="s">
+      <c r="A77" s="17"/>
+      <c r="B77" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C77" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D77" s="9"/>
-      <c r="E77" s="12" t="s">
+      <c r="D77" s="9">
+        <v>76</v>
+      </c>
+      <c r="E77" s="14" t="s">
         <v>72</v>
       </c>
       <c r="F77" s="5" t="s">
@@ -3476,11 +3601,13 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="16"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="12" t="s">
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="9">
+        <v>77</v>
+      </c>
+      <c r="E78" s="14" t="s">
         <v>73</v>
       </c>
       <c r="F78" s="5" t="s">
@@ -3491,11 +3618,13 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="16"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="12" t="s">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="9">
+        <v>78</v>
+      </c>
+      <c r="E79" s="14" t="s">
         <v>74</v>
       </c>
       <c r="F79" s="5" t="s">
@@ -3506,11 +3635,13 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="16"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="12" t="s">
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="9">
+        <v>79</v>
+      </c>
+      <c r="E80" s="14" t="s">
         <v>75</v>
       </c>
       <c r="F80" s="5" t="s">
@@ -3521,15 +3652,17 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="16"/>
-      <c r="B81" s="16" t="s">
+      <c r="A81" s="17"/>
+      <c r="B81" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C81" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D81" s="9"/>
-      <c r="E81" s="12" t="s">
+      <c r="D81" s="9">
+        <v>80</v>
+      </c>
+      <c r="E81" s="14" t="s">
         <v>80</v>
       </c>
       <c r="F81" s="5" t="s">
@@ -3540,11 +3673,13 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="16"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="12" t="s">
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="9">
+        <v>81</v>
+      </c>
+      <c r="E82" s="14" t="s">
         <v>81</v>
       </c>
       <c r="F82" s="5" t="s">
@@ -3555,11 +3690,13 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="12" t="s">
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="9">
+        <v>82</v>
+      </c>
+      <c r="E83" s="14" t="s">
         <v>82</v>
       </c>
       <c r="F83" s="5" t="s">
@@ -3570,11 +3707,13 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="16"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="12" t="s">
+      <c r="A84" s="17"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="9">
+        <v>83</v>
+      </c>
+      <c r="E84" s="14" t="s">
         <v>83</v>
       </c>
       <c r="F84" s="5" t="s">
@@ -3585,11 +3724,13 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="16"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="12" t="s">
+      <c r="A85" s="17"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="9">
+        <v>84</v>
+      </c>
+      <c r="E85" s="14" t="s">
         <v>84</v>
       </c>
       <c r="F85" s="5" t="s">
@@ -3600,11 +3741,13 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="16"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="12" t="s">
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="9">
+        <v>85</v>
+      </c>
+      <c r="E86" s="14" t="s">
         <v>85</v>
       </c>
       <c r="F86" s="5" t="s">
@@ -3615,15 +3758,17 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="16"/>
-      <c r="B87" s="16" t="s">
+      <c r="A87" s="17"/>
+      <c r="B87" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C87" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D87" s="9"/>
-      <c r="E87" s="12" t="s">
+      <c r="D87" s="9">
+        <v>86</v>
+      </c>
+      <c r="E87" s="14" t="s">
         <v>80</v>
       </c>
       <c r="F87" s="5" t="s">
@@ -3634,11 +3779,13 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="16"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="12" t="s">
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="9">
+        <v>87</v>
+      </c>
+      <c r="E88" s="14" t="s">
         <v>81</v>
       </c>
       <c r="F88" s="5" t="s">
@@ -3649,11 +3796,13 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="16"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="12" t="s">
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="9">
+        <v>88</v>
+      </c>
+      <c r="E89" s="14" t="s">
         <v>82</v>
       </c>
       <c r="F89" s="5" t="s">
@@ -3664,11 +3813,13 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="16"/>
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="12" t="s">
+      <c r="A90" s="17"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="9">
+        <v>89</v>
+      </c>
+      <c r="E90" s="14" t="s">
         <v>83</v>
       </c>
       <c r="F90" s="5" t="s">
@@ -3679,11 +3830,13 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="16"/>
-      <c r="B91" s="16"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="12" t="s">
+      <c r="A91" s="17"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="9">
+        <v>90</v>
+      </c>
+      <c r="E91" s="14" t="s">
         <v>84</v>
       </c>
       <c r="F91" s="5" t="s">
@@ -3694,11 +3847,13 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="16"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="12" t="s">
+      <c r="A92" s="17"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="9">
+        <v>91</v>
+      </c>
+      <c r="E92" s="14" t="s">
         <v>85</v>
       </c>
       <c r="F92" s="5" t="s">
@@ -3709,15 +3864,17 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="16"/>
-      <c r="B93" s="16" t="s">
+      <c r="A93" s="17"/>
+      <c r="B93" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C93" s="16" t="s">
+      <c r="C93" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D93" s="9"/>
-      <c r="E93" s="12" t="s">
+      <c r="D93" s="9">
+        <v>92</v>
+      </c>
+      <c r="E93" s="14" t="s">
         <v>89</v>
       </c>
       <c r="F93" s="5" t="s">
@@ -3728,11 +3885,13 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="16"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="12" t="s">
+      <c r="A94" s="17"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="9">
+        <v>93</v>
+      </c>
+      <c r="E94" s="14" t="s">
         <v>90</v>
       </c>
       <c r="F94" s="5" t="s">
@@ -3743,15 +3902,17 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="16"/>
-      <c r="B95" s="16" t="s">
+      <c r="A95" s="17"/>
+      <c r="B95" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C95" s="16" t="s">
+      <c r="C95" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D95" s="9"/>
-      <c r="E95" s="12" t="s">
+      <c r="D95" s="9">
+        <v>94</v>
+      </c>
+      <c r="E95" s="14" t="s">
         <v>89</v>
       </c>
       <c r="F95" s="5" t="s">
@@ -3762,11 +3923,13 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="16"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="12" t="s">
+      <c r="A96" s="17"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="9">
+        <v>95</v>
+      </c>
+      <c r="E96" s="14" t="s">
         <v>90</v>
       </c>
       <c r="F96" s="5" t="s">
@@ -3784,11 +3947,15 @@
       <c r="C97" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D97" s="9"/>
-      <c r="E97" s="11" t="s">
+      <c r="D97" s="9">
+        <v>96</v>
+      </c>
+      <c r="E97" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="F97" s="5"/>
+      <c r="F97" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="G97" s="12" t="s">
         <v>97</v>
       </c>
@@ -3801,11 +3968,15 @@
       <c r="C98" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D98" s="9"/>
-      <c r="E98" s="11" t="s">
+      <c r="D98" s="9">
+        <v>97</v>
+      </c>
+      <c r="E98" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="F98" s="5"/>
+      <c r="F98" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="G98" s="12" t="s">
         <v>97</v>
       </c>
@@ -3818,32 +3989,360 @@
       <c r="C99" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D99" s="9"/>
-      <c r="E99" s="11" t="s">
+      <c r="D99" s="9">
+        <v>98</v>
+      </c>
+      <c r="E99" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F99" s="5"/>
+      <c r="F99" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="G99" s="12" t="s">
         <v>97</v>
       </c>
     </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="9"/>
+      <c r="B100" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D100" s="9">
+        <v>99</v>
+      </c>
+      <c r="E100" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G100" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="9"/>
+      <c r="B101" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" s="9">
+        <v>100</v>
+      </c>
+      <c r="E101" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F101" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G101" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="9"/>
+      <c r="B102" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" s="9">
+        <v>101</v>
+      </c>
+      <c r="E102" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F102" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G102" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="9"/>
+      <c r="B103" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="9">
+        <v>102</v>
+      </c>
+      <c r="E103" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F103" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G103" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="9"/>
+      <c r="B104" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D104" s="9">
+        <v>103</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F104" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G104" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="20"/>
+      <c r="B105" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D105" s="9">
+        <v>104</v>
+      </c>
+      <c r="E105" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F105" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G105" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="20"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="9">
+        <v>105</v>
+      </c>
+      <c r="E106" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F106" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G106" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="9"/>
+      <c r="B107" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D107" s="9">
+        <v>106</v>
+      </c>
+      <c r="E107" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F107" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G107" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="9"/>
+      <c r="B108" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D108" s="9">
+        <v>107</v>
+      </c>
+      <c r="E108" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F108" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G108" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="9"/>
+      <c r="B109" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" s="9">
+        <v>108</v>
+      </c>
+      <c r="E109" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F109" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G109" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="9"/>
+      <c r="B110" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D110" s="9">
+        <v>109</v>
+      </c>
+      <c r="E110" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F110" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G110" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="9"/>
+      <c r="B111" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D111" s="9">
+        <v>110</v>
+      </c>
+      <c r="E111" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F111" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G111" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="9"/>
+      <c r="B112" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D112" s="9">
+        <v>111</v>
+      </c>
+      <c r="E112" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F112" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G112" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="9"/>
+      <c r="B113" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113" s="9">
+        <v>112</v>
+      </c>
+      <c r="E113" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F113" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G113" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="9"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="9">
+        <v>113</v>
+      </c>
+      <c r="E114" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F114" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G114" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="9"/>
+      <c r="B115" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D115" s="9">
+        <v>114</v>
+      </c>
+      <c r="E115" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F115" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G115" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A87:A92"/>
-    <mergeCell ref="B87:B92"/>
-    <mergeCell ref="C87:C92"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="C81:C86"/>
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="A81:A86"/>
+  <mergeCells count="38">
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B9:B24"/>
+    <mergeCell ref="C9:C24"/>
+    <mergeCell ref="A9:A24"/>
     <mergeCell ref="A25:A40"/>
     <mergeCell ref="A41:A56"/>
     <mergeCell ref="A57:A72"/>
@@ -3856,12 +4355,21 @@
     <mergeCell ref="C41:C56"/>
     <mergeCell ref="B57:B72"/>
     <mergeCell ref="C57:C72"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B9:B24"/>
-    <mergeCell ref="C9:C24"/>
-    <mergeCell ref="A9:A24"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="C81:C86"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A87:A92"/>
+    <mergeCell ref="B87:B92"/>
+    <mergeCell ref="C87:C92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A95:A96"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/project/board/BoardConfig.xlsx
+++ b/config/project/board/BoardConfig.xlsx
@@ -15,13 +15,14 @@
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
     <sheet name="提示" sheetId="37" r:id="rId2"/>
     <sheet name="继电器" sheetId="63" r:id="rId3"/>
+    <sheet name="board" sheetId="64" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="167">
   <si>
     <t>组序号</t>
   </si>
@@ -1231,7 +1232,183 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>fram</t>
+    <t>OK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>board</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>组名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sf</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN00 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN01 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN02 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN03 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN04 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN05 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN06 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN07 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN08 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN09 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN10 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN11 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN12 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN13 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN14 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN15 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN00 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN01 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN02 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN03 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN04 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN05 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN06 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN07 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN08 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN09 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN10 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN11 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN12 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN13 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN14 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN15 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>di_全关</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>di</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>board</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>can 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>can 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>can 2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>can</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1801,7 +1978,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1856,17 +2033,23 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2226,7 +2409,7 @@
   <dimension ref="A1:G115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2291,7 +2474,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D3" s="9">
         <v>2</v>
@@ -2303,7 +2486,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2312,7 +2495,7 @@
         <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="D4" s="9">
         <v>3</v>
@@ -2329,11 +2512,11 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>25</v>
+      <c r="C5" s="21" t="s">
+        <v>166</v>
       </c>
       <c r="D5" s="9">
         <v>4</v>
@@ -2342,7 +2525,7 @@
         <v>31</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>26</v>
@@ -2350,8 +2533,8 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="9">
         <v>5</v>
       </c>
@@ -2359,7 +2542,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>26</v>
@@ -2367,8 +2550,8 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="9">
         <v>6</v>
       </c>
@@ -2376,7 +2559,7 @@
         <v>33</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>26</v>
@@ -2404,12 +2587,12 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>25</v>
+      <c r="C9" s="23" t="s">
+        <v>162</v>
       </c>
       <c r="D9" s="9">
         <v>8</v>
@@ -2420,14 +2603,14 @@
       <c r="F9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="5">
-        <v>0</v>
+      <c r="G9" s="18" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="9">
         <v>9</v>
       </c>
@@ -2437,14 +2620,14 @@
       <c r="F10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="5">
-        <v>0</v>
+      <c r="G10" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="9">
         <v>10</v>
       </c>
@@ -2454,14 +2637,14 @@
       <c r="F11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="5">
-        <v>0</v>
+      <c r="G11" s="18" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="9">
         <v>11</v>
       </c>
@@ -2471,14 +2654,14 @@
       <c r="F12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="5">
-        <v>0</v>
+      <c r="G12" s="18" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="9">
         <v>12</v>
       </c>
@@ -2488,14 +2671,14 @@
       <c r="F13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="5">
-        <v>0</v>
+      <c r="G13" s="18" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="9">
         <v>13</v>
       </c>
@@ -2505,14 +2688,14 @@
       <c r="F14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="5">
-        <v>0</v>
+      <c r="G14" s="18" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="9">
         <v>14</v>
       </c>
@@ -2522,14 +2705,14 @@
       <c r="F15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="5">
-        <v>0</v>
+      <c r="G15" s="18" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="9">
         <v>15</v>
       </c>
@@ -2539,14 +2722,14 @@
       <c r="F16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="5">
-        <v>0</v>
+      <c r="G16" s="18" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="9">
         <v>16</v>
       </c>
@@ -2556,14 +2739,14 @@
       <c r="F17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="5">
-        <v>0</v>
+      <c r="G17" s="18" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="9">
         <v>17</v>
       </c>
@@ -2573,14 +2756,14 @@
       <c r="F18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="5">
-        <v>0</v>
+      <c r="G18" s="18" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="9">
         <v>18</v>
       </c>
@@ -2590,14 +2773,14 @@
       <c r="F19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="5">
-        <v>0</v>
+      <c r="G19" s="18" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="9">
         <v>19</v>
       </c>
@@ -2607,14 +2790,14 @@
       <c r="F20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="5">
-        <v>0</v>
+      <c r="G20" s="18" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="9">
         <v>20</v>
       </c>
@@ -2624,14 +2807,14 @@
       <c r="F21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="5">
-        <v>0</v>
+      <c r="G21" s="18" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="9">
         <v>21</v>
       </c>
@@ -2641,14 +2824,14 @@
       <c r="F22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="5">
-        <v>0</v>
+      <c r="G22" s="18" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="9">
         <v>22</v>
       </c>
@@ -2658,14 +2841,14 @@
       <c r="F23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="5">
-        <v>0</v>
+      <c r="G23" s="18" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="9">
         <v>23</v>
       </c>
@@ -2675,17 +2858,17 @@
       <c r="F24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="5">
-        <v>0</v>
+      <c r="G24" s="18" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17" t="s">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>25</v>
+      <c r="C25" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="D25" s="9">
         <v>24</v>
@@ -2696,14 +2879,14 @@
       <c r="F25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="5">
-        <v>1</v>
+      <c r="G25" s="17" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="9">
         <v>25</v>
       </c>
@@ -2713,14 +2896,14 @@
       <c r="F26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="5">
-        <v>1</v>
+      <c r="G26" s="17" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="9">
         <v>26</v>
       </c>
@@ -2730,14 +2913,14 @@
       <c r="F27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="5">
-        <v>1</v>
+      <c r="G27" s="17" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="9">
         <v>27</v>
       </c>
@@ -2747,14 +2930,14 @@
       <c r="F28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="5">
-        <v>1</v>
+      <c r="G28" s="17" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
       <c r="D29" s="9">
         <v>28</v>
       </c>
@@ -2764,14 +2947,14 @@
       <c r="F29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="5">
-        <v>1</v>
+      <c r="G29" s="17" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="9">
         <v>29</v>
       </c>
@@ -2781,14 +2964,14 @@
       <c r="F30" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="5">
-        <v>1</v>
+      <c r="G30" s="17" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="9">
         <v>30</v>
       </c>
@@ -2798,14 +2981,14 @@
       <c r="F31" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G31" s="5">
-        <v>1</v>
+      <c r="G31" s="17" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
       <c r="D32" s="9">
         <v>31</v>
       </c>
@@ -2815,14 +2998,14 @@
       <c r="F32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="5">
-        <v>1</v>
+      <c r="G32" s="17" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="9">
         <v>32</v>
       </c>
@@ -2832,14 +3015,14 @@
       <c r="F33" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="5">
-        <v>1</v>
+      <c r="G33" s="17" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="9">
         <v>33</v>
       </c>
@@ -2849,14 +3032,14 @@
       <c r="F34" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G34" s="5">
-        <v>1</v>
+      <c r="G34" s="17" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
       <c r="D35" s="9">
         <v>34</v>
       </c>
@@ -2866,14 +3049,14 @@
       <c r="F35" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="5">
-        <v>1</v>
+      <c r="G35" s="17" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
       <c r="D36" s="9">
         <v>35</v>
       </c>
@@ -2883,14 +3066,14 @@
       <c r="F36" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="5">
-        <v>1</v>
+      <c r="G36" s="17" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
       <c r="D37" s="9">
         <v>36</v>
       </c>
@@ -2900,14 +3083,14 @@
       <c r="F37" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="5">
-        <v>1</v>
+      <c r="G37" s="17" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="9">
         <v>37</v>
       </c>
@@ -2917,14 +3100,14 @@
       <c r="F38" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="5">
-        <v>1</v>
+      <c r="G38" s="17" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
       <c r="D39" s="9">
         <v>38</v>
       </c>
@@ -2934,14 +3117,14 @@
       <c r="F39" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="5">
-        <v>1</v>
+      <c r="G39" s="17" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
       <c r="D40" s="9">
         <v>39</v>
       </c>
@@ -2951,16 +3134,16 @@
       <c r="F40" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="5">
-        <v>1</v>
+      <c r="G40" s="17" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17" t="s">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="23" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="9">
@@ -2977,9 +3160,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
       <c r="D42" s="9">
         <v>41</v>
       </c>
@@ -2994,9 +3177,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
       <c r="D43" s="9">
         <v>42</v>
       </c>
@@ -3011,9 +3194,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
       <c r="D44" s="9">
         <v>43</v>
       </c>
@@ -3028,9 +3211,9 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
       <c r="D45" s="9">
         <v>44</v>
       </c>
@@ -3045,9 +3228,9 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
       <c r="D46" s="9">
         <v>45</v>
       </c>
@@ -3062,9 +3245,9 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
       <c r="D47" s="9">
         <v>46</v>
       </c>
@@ -3079,9 +3262,9 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
       <c r="D48" s="9">
         <v>47</v>
       </c>
@@ -3096,9 +3279,9 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
       <c r="D49" s="9">
         <v>48</v>
       </c>
@@ -3113,9 +3296,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
       <c r="D50" s="9">
         <v>49</v>
       </c>
@@ -3130,9 +3313,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
       <c r="D51" s="9">
         <v>50</v>
       </c>
@@ -3147,9 +3330,9 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
       <c r="D52" s="9">
         <v>51</v>
       </c>
@@ -3164,9 +3347,9 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
       <c r="D53" s="9">
         <v>52</v>
       </c>
@@ -3181,9 +3364,9 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
       <c r="D54" s="9">
         <v>53</v>
       </c>
@@ -3198,9 +3381,9 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
       <c r="D55" s="9">
         <v>54</v>
       </c>
@@ -3215,9 +3398,9 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
       <c r="D56" s="9">
         <v>55</v>
       </c>
@@ -3232,11 +3415,11 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17" t="s">
+      <c r="A57" s="23"/>
+      <c r="B57" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="23" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="9">
@@ -3253,9 +3436,9 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
       <c r="D58" s="9">
         <v>57</v>
       </c>
@@ -3270,9 +3453,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
       <c r="D59" s="9">
         <v>58</v>
       </c>
@@ -3287,9 +3470,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
       <c r="D60" s="9">
         <v>59</v>
       </c>
@@ -3304,9 +3487,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
       <c r="D61" s="9">
         <v>60</v>
       </c>
@@ -3321,9 +3504,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
       <c r="D62" s="9">
         <v>61</v>
       </c>
@@ -3338,9 +3521,9 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
       <c r="D63" s="9">
         <v>62</v>
       </c>
@@ -3355,9 +3538,9 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
       <c r="D64" s="9">
         <v>63</v>
       </c>
@@ -3372,9 +3555,9 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
       <c r="D65" s="9">
         <v>64</v>
       </c>
@@ -3389,9 +3572,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
       <c r="D66" s="9">
         <v>65</v>
       </c>
@@ -3406,9 +3589,9 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
       <c r="D67" s="9">
         <v>66</v>
       </c>
@@ -3423,9 +3606,9 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
       <c r="D68" s="9">
         <v>67</v>
       </c>
@@ -3440,9 +3623,9 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
       <c r="D69" s="9">
         <v>68</v>
       </c>
@@ -3457,9 +3640,9 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="17"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
       <c r="D70" s="9">
         <v>69</v>
       </c>
@@ -3474,9 +3657,9 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
+      <c r="A71" s="23"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
       <c r="D71" s="9">
         <v>70</v>
       </c>
@@ -3491,9 +3674,9 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="17"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
       <c r="D72" s="9">
         <v>71</v>
       </c>
@@ -3508,11 +3691,11 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="17"/>
-      <c r="B73" s="17" t="s">
+      <c r="A73" s="23"/>
+      <c r="B73" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="23" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="9">
@@ -3529,9 +3712,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
       <c r="D74" s="9">
         <v>73</v>
       </c>
@@ -3546,9 +3729,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="17"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
       <c r="D75" s="9">
         <v>74</v>
       </c>
@@ -3563,9 +3746,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="17"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
       <c r="D76" s="9">
         <v>75</v>
       </c>
@@ -3580,11 +3763,11 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="17"/>
-      <c r="B77" s="17" t="s">
+      <c r="A77" s="23"/>
+      <c r="B77" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="23" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="9">
@@ -3601,9 +3784,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="17"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
+      <c r="A78" s="23"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
       <c r="D78" s="9">
         <v>77</v>
       </c>
@@ -3618,9 +3801,9 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="17"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
+      <c r="A79" s="23"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
       <c r="D79" s="9">
         <v>78</v>
       </c>
@@ -3635,9 +3818,9 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="17"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
+      <c r="A80" s="23"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
       <c r="D80" s="9">
         <v>79</v>
       </c>
@@ -3652,11 +3835,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="17"/>
-      <c r="B81" s="17" t="s">
+      <c r="A81" s="23"/>
+      <c r="B81" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C81" s="23" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="9">
@@ -3673,9 +3856,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="17"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
       <c r="D82" s="9">
         <v>81</v>
       </c>
@@ -3690,9 +3873,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="17"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
+      <c r="A83" s="23"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
       <c r="D83" s="9">
         <v>82</v>
       </c>
@@ -3707,9 +3890,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="17"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
+      <c r="A84" s="23"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
       <c r="D84" s="9">
         <v>83</v>
       </c>
@@ -3724,9 +3907,9 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="17"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
+      <c r="A85" s="23"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="23"/>
       <c r="D85" s="9">
         <v>84</v>
       </c>
@@ -3741,9 +3924,9 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="17"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
+      <c r="A86" s="23"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
       <c r="D86" s="9">
         <v>85</v>
       </c>
@@ -3758,11 +3941,11 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="17"/>
-      <c r="B87" s="17" t="s">
+      <c r="A87" s="23"/>
+      <c r="B87" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C87" s="17" t="s">
+      <c r="C87" s="23" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="9">
@@ -3779,9 +3962,9 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="17"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
+      <c r="A88" s="23"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
       <c r="D88" s="9">
         <v>87</v>
       </c>
@@ -3796,9 +3979,9 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="17"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
+      <c r="A89" s="23"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
       <c r="D89" s="9">
         <v>88</v>
       </c>
@@ -3813,9 +3996,9 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="17"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
+      <c r="A90" s="23"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="23"/>
       <c r="D90" s="9">
         <v>89</v>
       </c>
@@ -3830,9 +4013,9 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="17"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
+      <c r="A91" s="23"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
       <c r="D91" s="9">
         <v>90</v>
       </c>
@@ -3847,9 +4030,9 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="17"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
+      <c r="A92" s="23"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
       <c r="D92" s="9">
         <v>91</v>
       </c>
@@ -3864,11 +4047,11 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="17"/>
-      <c r="B93" s="17" t="s">
+      <c r="A93" s="23"/>
+      <c r="B93" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C93" s="17" t="s">
+      <c r="C93" s="23" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="9">
@@ -3885,9 +4068,9 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="17"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
+      <c r="A94" s="23"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="23"/>
       <c r="D94" s="9">
         <v>93</v>
       </c>
@@ -3902,11 +4085,11 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="17"/>
-      <c r="B95" s="17" t="s">
+      <c r="A95" s="23"/>
+      <c r="B95" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C95" s="17" t="s">
+      <c r="C95" s="23" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="9">
@@ -3923,9 +4106,9 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="17"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
+      <c r="A96" s="23"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="23"/>
       <c r="D96" s="9">
         <v>95</v>
       </c>
@@ -4109,10 +4292,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="20"/>
-      <c r="B105" s="21" t="s">
+      <c r="B105" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C105" s="21" t="s">
+      <c r="C105" s="19" t="s">
         <v>99</v>
       </c>
       <c r="D105" s="9">
@@ -4130,8 +4313,8 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="20"/>
-      <c r="B106" s="21"/>
-      <c r="C106" s="21"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
       <c r="D106" s="9">
         <v>105</v>
       </c>
@@ -4273,10 +4456,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
-      <c r="B113" s="21" t="s">
+      <c r="B113" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C113" s="21" t="s">
+      <c r="C113" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="9">
@@ -4294,8 +4477,8 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
-      <c r="B114" s="21"/>
-      <c r="C114" s="21"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="19"/>
       <c r="D114" s="9">
         <v>113</v>
       </c>
@@ -4332,17 +4515,21 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B9:B24"/>
-    <mergeCell ref="C9:C24"/>
-    <mergeCell ref="A9:A24"/>
+    <mergeCell ref="A87:A92"/>
+    <mergeCell ref="B87:B92"/>
+    <mergeCell ref="C87:C92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="C81:C86"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="A81:A86"/>
     <mergeCell ref="A25:A40"/>
     <mergeCell ref="A41:A56"/>
     <mergeCell ref="A57:A72"/>
@@ -4355,21 +4542,17 @@
     <mergeCell ref="C41:C56"/>
     <mergeCell ref="B57:B72"/>
     <mergeCell ref="C57:C72"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="C81:C86"/>
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A87:A92"/>
-    <mergeCell ref="B87:B92"/>
-    <mergeCell ref="C87:C92"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B9:B24"/>
+    <mergeCell ref="C9:C24"/>
+    <mergeCell ref="A9:A24"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4497,7 +4680,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4505,4 +4688,64 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="20.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/config/project/board/BoardConfig.xlsx
+++ b/config/project/board/BoardConfig.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="184">
   <si>
     <t>组序号</t>
   </si>
@@ -206,8 +206,12 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>D</t>
+    <t>di_全合</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
     </r>
     <r>
       <rPr>
@@ -217,8 +221,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>IN00</t>
-    </r>
+      <t>o_全亮</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_全灭</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -233,7 +241,23 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>IN01</t>
+      <t>O00</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>O01</t>
     </r>
     <r>
       <rPr>
@@ -258,7 +282,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>IN02</t>
+      <t>O02</t>
     </r>
     <r>
       <rPr>
@@ -283,7 +307,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>IN03</t>
+      <t>O03</t>
     </r>
     <r>
       <rPr>
@@ -308,7 +332,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>IN04</t>
+      <t>O04</t>
     </r>
     <r>
       <rPr>
@@ -333,7 +357,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>IN05</t>
+      <t>O05</t>
     </r>
     <r>
       <rPr>
@@ -358,7 +382,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>IN06</t>
+      <t>O06</t>
     </r>
     <r>
       <rPr>
@@ -383,7 +407,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>IN07</t>
+      <t>O07</t>
     </r>
     <r>
       <rPr>
@@ -408,7 +432,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>IN08</t>
+      <t>O08</t>
     </r>
     <r>
       <rPr>
@@ -433,7 +457,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>IN09</t>
+      <t>O09</t>
     </r>
     <r>
       <rPr>
@@ -458,7 +482,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>IN10</t>
+      <t>O10</t>
     </r>
     <r>
       <rPr>
@@ -483,7 +507,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>IN11</t>
+      <t>O11</t>
     </r>
     <r>
       <rPr>
@@ -508,7 +532,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>IN12</t>
+      <t>O12</t>
     </r>
     <r>
       <rPr>
@@ -533,7 +557,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>IN13</t>
+      <t>O13</t>
     </r>
     <r>
       <rPr>
@@ -558,7 +582,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>IN14</t>
+      <t>O14</t>
     </r>
     <r>
       <rPr>
@@ -583,7 +607,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>IN15</t>
+      <t>O15</t>
     </r>
     <r>
       <rPr>
@@ -597,12 +621,463 @@
     </r>
   </si>
   <si>
-    <t>di_全合</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
+    <t>SPIAD开关全关状态</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI_ADC0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI_ADC1</t>
+  </si>
+  <si>
+    <t>SPI_ADC2</t>
+  </si>
+  <si>
+    <t>SPI_ADC3</t>
+  </si>
+  <si>
+    <t>SPIAD开关全开状态</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD采样(ADC开关17-18打开)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC0_SE17</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC0_SE18</t>
+  </si>
+  <si>
+    <t>ADC1_SE4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC1_SE5</t>
+  </si>
+  <si>
+    <t>ADC1_SE6</t>
+  </si>
+  <si>
+    <t>ADC1_SE7</t>
+  </si>
+  <si>
+    <t>AD采样(ADC开关17-18关闭)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>IODI防接反(关闭防接反)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO_DI4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO_DI5</t>
+  </si>
+  <si>
+    <t>IODI防接反(打开防接反)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>看门狗功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级程序</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>看门狗出厂设备</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>合格</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池电压</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2V</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时钟测试(rtc)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>选枪按键测试(key)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下枪1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下枪2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>485及读卡器口测试</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARD1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARD2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPRS功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED板测试</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPK测试</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络测试</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>主从通讯</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>看门狗功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级程序</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级正确BOOT程序</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级正确应用程序</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>看门狗出厂设备</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>看门狗能强制复位</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>board</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>组名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sf</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN01 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN02 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN03 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN04 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN05 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN06 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN07 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN08 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN09 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN10 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN11 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN12 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN13 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN14 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN15 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN01 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN02 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN03 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN04 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN05 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN06 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN07 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN08 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN09 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN10 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN11 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN12 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN13 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN14 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN15 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>di_全关</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>di</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>board</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>can 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>can 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>can 2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>can</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_全亮</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_全灭</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>spiadc</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>adc</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO_DI4 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO_DI5 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO_DI4 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO_DI5 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>IODI防接反(关闭防接反)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>IODI防接反(打开防接反)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>iodi</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN01</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN02</t>
+  </si>
+  <si>
+    <t>DIN03</t>
+  </si>
+  <si>
+    <t>DIN04</t>
+  </si>
+  <si>
+    <t>DIN05</t>
+  </si>
+  <si>
+    <t>DIN06</t>
+  </si>
+  <si>
+    <t>DIN07</t>
+  </si>
+  <si>
+    <t>DIN08</t>
+  </si>
+  <si>
+    <t>DIN09</t>
+  </si>
+  <si>
+    <t>DIN10</t>
+  </si>
+  <si>
+    <t>DIN11</t>
+  </si>
+  <si>
+    <t>DIN12</t>
+  </si>
+  <si>
+    <t>DIN13</t>
+  </si>
+  <si>
+    <t>DIN14</t>
+  </si>
+  <si>
+    <t>DIN15</t>
+  </si>
+  <si>
+    <t>DIN16</t>
+  </si>
+  <si>
+    <t>DIN16 = 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN16 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAM读写测试</t>
+  </si>
+  <si>
+    <t>时钟测试(rtc)</t>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
     </r>
     <r>
       <rPr>
@@ -612,551 +1087,20 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>o_全亮</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>do_全灭</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>O00</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>O01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>O02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>O03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>O04</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>O05</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>O06</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>O07</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>O08</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>O09</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>O10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>O11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>O12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>O13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>O14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>O15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>SPIAD开关全关状态</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI_ADC0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI_ADC1</t>
-  </si>
-  <si>
-    <t>SPI_ADC2</t>
-  </si>
-  <si>
-    <t>SPI_ADC3</t>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>V</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3V</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPIAD开关全开状态</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>AD采样(ADC开关17-18打开)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC0_SE17</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC0_SE18</t>
-  </si>
-  <si>
-    <t>ADC1_SE4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC1_SE5</t>
-  </si>
-  <si>
-    <t>ADC1_SE6</t>
-  </si>
-  <si>
-    <t>ADC1_SE7</t>
-  </si>
-  <si>
-    <r>
-      <t>1.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>V</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>AD采样(ADC开关17-18关闭)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>IODI防接反(关闭防接反)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>IO_DI4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>IO_DI5</t>
-  </si>
-  <si>
-    <t>IODI防接反(打开防接反)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.5V</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0V</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>看门狗功能</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级程序</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>看门狗出厂设备</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>合格</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>电池电压</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2V</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAM读写测试(fr)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>时钟测试(rtc)</t>
+      <t>tc</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rtc</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>key1 = 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>key2 = 1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1164,39 +1108,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>按下枪1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>按下枪2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>485及读卡器口测试</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CARD1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CARD2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPRS功能</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED板测试</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPK测试</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络测试</t>
+    <t>key</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>disp</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1204,211 +1120,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>看门狗功能</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级程序</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级正确BOOT程序</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级正确应用程序</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>看门狗出厂设备</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>看门狗能强制复位</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>fr</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>board</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>组名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>命令</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sf</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIN00 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIN01 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIN02 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIN03 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIN04 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIN05 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIN06 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIN07 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIN08 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIN09 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIN10 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIN11 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIN12 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIN13 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIN14 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIN15 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIN00 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIN01 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIN02 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIN03 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIN04 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIN05 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIN06 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIN07 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIN08 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIN09 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIN10 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIN11 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIN12 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIN13 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIN14 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIN15 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>di_全关</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>di</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>board</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>can 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>can 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>can 2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>can</t>
+    <t>cpu_dcm</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1706,7 +1418,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1849,6 +1561,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1978,7 +1703,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2037,19 +1762,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2406,17 +2149,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C7"/>
+    <sheetView topLeftCell="A40" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.08984375" customWidth="1"/>
     <col min="2" max="2" width="26.1796875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="16" customWidth="1"/>
     <col min="4" max="4" width="10.26953125" customWidth="1"/>
     <col min="5" max="5" width="39.36328125" style="16" customWidth="1"/>
     <col min="6" max="6" width="18.36328125" style="1" customWidth="1"/>
@@ -2431,7 +2174,7 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -2452,7 +2195,7 @@
       <c r="B2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="9">
@@ -2473,8 +2216,8 @@
       <c r="B3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>124</v>
+      <c r="C3" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="D3" s="9">
         <v>2</v>
@@ -2486,7 +2229,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2494,8 +2237,8 @@
       <c r="B4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>124</v>
+      <c r="C4" s="21" t="s">
+        <v>102</v>
       </c>
       <c r="D4" s="9">
         <v>3</v>
@@ -2507,16 +2250,16 @@
         <v>26</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>166</v>
+      <c r="C5" s="26" t="s">
+        <v>142</v>
       </c>
       <c r="D5" s="9">
         <v>4</v>
@@ -2525,16 +2268,16 @@
         <v>31</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="21"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="9">
         <v>5</v>
       </c>
@@ -2542,16 +2285,16 @@
         <v>32</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="21"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="9">
         <v>6</v>
       </c>
@@ -2559,7 +2302,7 @@
         <v>33</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>26</v>
@@ -2570,7 +2313,7 @@
       <c r="B8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="22" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="9">
@@ -2587,570 +2330,570 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>162</v>
+      <c r="C9" s="26" t="s">
+        <v>138</v>
       </c>
       <c r="D9" s="9">
         <v>8</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>128</v>
+      <c r="G9" s="19" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="9">
         <v>9</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>37</v>
+      <c r="E10" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="18" t="s">
-        <v>129</v>
+      <c r="G10" s="19" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="9">
         <v>10</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>38</v>
+      <c r="E11" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>130</v>
+      <c r="G11" s="19" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="9">
         <v>11</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>39</v>
+      <c r="E12" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="18" t="s">
-        <v>131</v>
+      <c r="G12" s="19" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="9">
         <v>12</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>40</v>
+      <c r="E13" s="21" t="s">
+        <v>159</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>132</v>
+      <c r="G13" s="19" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="9">
         <v>13</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>41</v>
+      <c r="E14" s="21" t="s">
+        <v>160</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="18" t="s">
-        <v>133</v>
+      <c r="G14" s="19" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="9">
         <v>14</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>42</v>
+      <c r="E15" s="21" t="s">
+        <v>161</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="18" t="s">
-        <v>134</v>
+      <c r="G15" s="19" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="9">
         <v>15</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>43</v>
+      <c r="E16" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="18" t="s">
-        <v>135</v>
+      <c r="G16" s="19" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="9">
         <v>16</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>44</v>
+      <c r="E17" s="21" t="s">
+        <v>163</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="18" t="s">
-        <v>136</v>
+      <c r="G17" s="19" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="9">
         <v>17</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>45</v>
+      <c r="E18" s="21" t="s">
+        <v>164</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="18" t="s">
-        <v>137</v>
+      <c r="G18" s="19" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="9">
         <v>18</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>46</v>
+      <c r="E19" s="21" t="s">
+        <v>165</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="18" t="s">
-        <v>138</v>
+      <c r="G19" s="19" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="9">
         <v>19</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>47</v>
+      <c r="E20" s="21" t="s">
+        <v>166</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="18" t="s">
-        <v>139</v>
+      <c r="G20" s="19" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="9">
         <v>20</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>48</v>
+      <c r="E21" s="21" t="s">
+        <v>167</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="18" t="s">
-        <v>140</v>
+      <c r="G21" s="19" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="9">
         <v>21</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>49</v>
+      <c r="E22" s="21" t="s">
+        <v>168</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="18" t="s">
-        <v>141</v>
+      <c r="G22" s="19" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="9">
         <v>22</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>50</v>
+      <c r="E23" s="21" t="s">
+        <v>169</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="18" t="s">
-        <v>142</v>
+      <c r="G23" s="19" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="9">
         <v>23</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>51</v>
+      <c r="E24" s="21" t="s">
+        <v>170</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>124</v>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>102</v>
       </c>
       <c r="D25" s="9">
         <v>24</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>36</v>
+      <c r="E25" s="21" t="s">
+        <v>155</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="17" t="s">
-        <v>144</v>
+      <c r="G25" s="21" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="9">
         <v>25</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>37</v>
+      <c r="E26" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="17" t="s">
-        <v>145</v>
+      <c r="G26" s="21" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="9">
         <v>26</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>38</v>
+      <c r="E27" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="17" t="s">
-        <v>146</v>
+      <c r="G27" s="21" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="9">
         <v>27</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>39</v>
+      <c r="E28" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="17" t="s">
-        <v>147</v>
+      <c r="G28" s="21" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
       <c r="D29" s="9">
         <v>28</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>40</v>
+      <c r="E29" s="21" t="s">
+        <v>159</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="17" t="s">
-        <v>148</v>
+      <c r="G29" s="21" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="9">
         <v>29</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>41</v>
+      <c r="E30" s="21" t="s">
+        <v>160</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="17" t="s">
-        <v>149</v>
+      <c r="G30" s="21" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="9">
         <v>30</v>
       </c>
-      <c r="E31" s="14" t="s">
-        <v>42</v>
+      <c r="E31" s="21" t="s">
+        <v>161</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G31" s="17" t="s">
-        <v>150</v>
+      <c r="G31" s="21" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="9">
         <v>31</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>43</v>
+      <c r="E32" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="17" t="s">
-        <v>151</v>
+      <c r="G32" s="21" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="9">
         <v>32</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>44</v>
+      <c r="E33" s="21" t="s">
+        <v>163</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="17" t="s">
-        <v>152</v>
+      <c r="G33" s="21" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
       <c r="D34" s="9">
         <v>33</v>
       </c>
-      <c r="E34" s="14" t="s">
-        <v>45</v>
+      <c r="E34" s="21" t="s">
+        <v>164</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G34" s="17" t="s">
-        <v>153</v>
+      <c r="G34" s="21" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
       <c r="D35" s="9">
         <v>34</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>46</v>
+      <c r="E35" s="21" t="s">
+        <v>165</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="17" t="s">
-        <v>154</v>
+      <c r="G35" s="21" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
       <c r="D36" s="9">
         <v>35</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>47</v>
+      <c r="E36" s="21" t="s">
+        <v>166</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="17" t="s">
-        <v>155</v>
+      <c r="G36" s="21" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
       <c r="D37" s="9">
         <v>36</v>
       </c>
-      <c r="E37" s="14" t="s">
-        <v>48</v>
+      <c r="E37" s="21" t="s">
+        <v>167</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="17" t="s">
-        <v>156</v>
+      <c r="G37" s="21" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
       <c r="D38" s="9">
         <v>37</v>
       </c>
-      <c r="E38" s="14" t="s">
-        <v>49</v>
+      <c r="E38" s="21" t="s">
+        <v>168</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="17" t="s">
-        <v>157</v>
+      <c r="G38" s="21" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
       <c r="D39" s="9">
         <v>38</v>
       </c>
-      <c r="E39" s="14" t="s">
-        <v>50</v>
+      <c r="E39" s="21" t="s">
+        <v>169</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="17" t="s">
-        <v>158</v>
+      <c r="G39" s="21" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
       <c r="D40" s="9">
         <v>39</v>
       </c>
-      <c r="E40" s="14" t="s">
-        <v>51</v>
+      <c r="E40" s="21" t="s">
+        <v>170</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>25</v>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>102</v>
       </c>
       <c r="D41" s="9">
         <v>40</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>26</v>
@@ -3160,14 +2903,14 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
       <c r="D42" s="9">
         <v>41</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>26</v>
@@ -3177,14 +2920,14 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="9">
         <v>42</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>26</v>
@@ -3194,14 +2937,14 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
       <c r="D44" s="9">
         <v>43</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>26</v>
@@ -3211,14 +2954,14 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
       <c r="D45" s="9">
         <v>44</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>26</v>
@@ -3228,14 +2971,14 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
       <c r="D46" s="9">
         <v>45</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>26</v>
@@ -3245,14 +2988,14 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
       <c r="D47" s="9">
         <v>46</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>26</v>
@@ -3262,14 +3005,14 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
       <c r="D48" s="9">
         <v>47</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>26</v>
@@ -3279,14 +3022,14 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
       <c r="D49" s="9">
         <v>48</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>26</v>
@@ -3296,14 +3039,14 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
       <c r="D50" s="9">
         <v>49</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>26</v>
@@ -3313,14 +3056,14 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
       <c r="D51" s="9">
         <v>50</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>26</v>
@@ -3330,14 +3073,14 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
       <c r="D52" s="9">
         <v>51</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>26</v>
@@ -3347,14 +3090,14 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
       <c r="D53" s="9">
         <v>52</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>26</v>
@@ -3364,14 +3107,14 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
       <c r="D54" s="9">
         <v>53</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>26</v>
@@ -3381,14 +3124,14 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
       <c r="D55" s="9">
         <v>54</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>26</v>
@@ -3398,14 +3141,14 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
       <c r="D56" s="9">
         <v>55</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>26</v>
@@ -3415,18 +3158,18 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>25</v>
+      <c r="A57" s="26"/>
+      <c r="B57" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>102</v>
       </c>
       <c r="D57" s="9">
         <v>56</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>26</v>
@@ -3436,14 +3179,14 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
+      <c r="A58" s="26"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
       <c r="D58" s="9">
         <v>57</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>26</v>
@@ -3453,14 +3196,14 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
       <c r="D59" s="9">
         <v>58</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>26</v>
@@ -3470,14 +3213,14 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
       <c r="D60" s="9">
         <v>59</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>26</v>
@@ -3487,14 +3230,14 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
       <c r="D61" s="9">
         <v>60</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>26</v>
@@ -3504,14 +3247,14 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
       <c r="D62" s="9">
         <v>61</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>26</v>
@@ -3521,14 +3264,14 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
+      <c r="A63" s="26"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
       <c r="D63" s="9">
         <v>62</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>26</v>
@@ -3538,14 +3281,14 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
+      <c r="A64" s="26"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
       <c r="D64" s="9">
         <v>63</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>26</v>
@@ -3555,14 +3298,14 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
+      <c r="A65" s="26"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
       <c r="D65" s="9">
         <v>64</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>26</v>
@@ -3572,14 +3315,14 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="23"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
+      <c r="A66" s="26"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
       <c r="D66" s="9">
         <v>65</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>26</v>
@@ -3589,14 +3332,14 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="23"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
+      <c r="A67" s="26"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
       <c r="D67" s="9">
         <v>66</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>26</v>
@@ -3606,14 +3349,14 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
+      <c r="A68" s="26"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
       <c r="D68" s="9">
         <v>67</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>26</v>
@@ -3623,14 +3366,14 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
+      <c r="A69" s="26"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
       <c r="D69" s="9">
         <v>68</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>26</v>
@@ -3640,14 +3383,14 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
+      <c r="A70" s="26"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
       <c r="D70" s="9">
         <v>69</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>26</v>
@@ -3657,14 +3400,14 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="23"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
+      <c r="A71" s="26"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
       <c r="D71" s="9">
         <v>70</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>26</v>
@@ -3674,14 +3417,14 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
+      <c r="A72" s="26"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
       <c r="D72" s="9">
         <v>71</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>26</v>
@@ -3691,764 +3434,760 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
-      <c r="B73" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>25</v>
+      <c r="A73" s="26"/>
+      <c r="B73" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>146</v>
       </c>
       <c r="D73" s="9">
         <v>72</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G73" s="12" t="s">
-        <v>76</v>
+      <c r="G73" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
+      <c r="A74" s="26"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
       <c r="D74" s="9">
         <v>73</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G74" s="12" t="s">
-        <v>76</v>
+      <c r="G74" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
+      <c r="A75" s="26"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
       <c r="D75" s="9">
         <v>74</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G75" s="12" t="s">
-        <v>76</v>
+      <c r="G75" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
+      <c r="A76" s="26"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
       <c r="D76" s="9">
         <v>75</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G76" s="12" t="s">
-        <v>76</v>
+      <c r="G76" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
-      <c r="B77" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C77" s="23" t="s">
-        <v>25</v>
+      <c r="A77" s="26"/>
+      <c r="B77" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>146</v>
       </c>
       <c r="D77" s="9">
         <v>76</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G77" s="12" t="s">
-        <v>77</v>
+      <c r="G77" s="12">
+        <v>3.3</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="23"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
+      <c r="A78" s="26"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
       <c r="D78" s="9">
         <v>77</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G78" s="12" t="s">
-        <v>77</v>
+      <c r="G78" s="12">
+        <v>3.3</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="23"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
+      <c r="A79" s="26"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
       <c r="D79" s="9">
         <v>78</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G79" s="12" t="s">
-        <v>77</v>
+      <c r="G79" s="12">
+        <v>3.3</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="23"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
+      <c r="A80" s="26"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
       <c r="D80" s="9">
         <v>79</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G80" s="12" t="s">
-        <v>77</v>
+      <c r="G80" s="12">
+        <v>3.3</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="23"/>
-      <c r="B81" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C81" s="23" t="s">
-        <v>25</v>
+      <c r="A81" s="26"/>
+      <c r="B81" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>147</v>
       </c>
       <c r="D81" s="9">
         <v>80</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G81" s="12" t="s">
-        <v>86</v>
+      <c r="G81" s="12">
+        <v>1.3</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="23"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
+      <c r="A82" s="26"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
       <c r="D82" s="9">
         <v>81</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G82" s="12" t="s">
-        <v>86</v>
+      <c r="G82" s="12">
+        <v>1.3</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="23"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
+      <c r="A83" s="26"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="26"/>
       <c r="D83" s="9">
         <v>82</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G83" s="12" t="s">
-        <v>86</v>
+      <c r="G83" s="12">
+        <v>1.3</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="23"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
+      <c r="A84" s="26"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
       <c r="D84" s="9">
         <v>83</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G84" s="12" t="s">
-        <v>86</v>
+      <c r="G84" s="12">
+        <v>1.3</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="23"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
+      <c r="A85" s="26"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="26"/>
       <c r="D85" s="9">
         <v>84</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G85" s="12" t="s">
-        <v>86</v>
+      <c r="G85" s="12">
+        <v>1.3</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="23"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="23"/>
+      <c r="A86" s="26"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="26"/>
       <c r="D86" s="9">
         <v>85</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G86" s="12" t="s">
-        <v>86</v>
+      <c r="G86" s="12">
+        <v>1.3</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="23"/>
-      <c r="B87" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C87" s="23" t="s">
-        <v>25</v>
+      <c r="A87" s="26"/>
+      <c r="B87" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C87" s="26" t="s">
+        <v>147</v>
       </c>
       <c r="D87" s="9">
         <v>86</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G87" s="12" t="s">
-        <v>92</v>
+      <c r="G87" s="12">
+        <v>2.5</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="23"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="23"/>
+      <c r="A88" s="26"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
       <c r="D88" s="9">
         <v>87</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G88" s="12" t="s">
-        <v>92</v>
+      <c r="G88" s="12">
+        <v>2.5</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="23"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="23"/>
+      <c r="A89" s="26"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
       <c r="D89" s="9">
         <v>88</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G89" s="12" t="s">
-        <v>93</v>
+      <c r="G89" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="23"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
+      <c r="A90" s="26"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="26"/>
       <c r="D90" s="9">
         <v>89</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G90" s="12" t="s">
-        <v>93</v>
+      <c r="G90" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="23"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
+      <c r="A91" s="26"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="26"/>
       <c r="D91" s="9">
         <v>90</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G91" s="12" t="s">
-        <v>93</v>
+      <c r="G91" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="23"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="23"/>
+      <c r="A92" s="26"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
       <c r="D92" s="9">
         <v>91</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G92" s="12" t="s">
-        <v>93</v>
+      <c r="G92" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="23"/>
-      <c r="B93" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C93" s="23" t="s">
-        <v>25</v>
+      <c r="A93" s="26"/>
+      <c r="B93" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C93" s="26" t="s">
+        <v>102</v>
       </c>
       <c r="D93" s="9">
         <v>92</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G93" s="5">
-        <v>1</v>
+      <c r="G93" s="19" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="23"/>
-      <c r="B94" s="23"/>
-      <c r="C94" s="23"/>
+      <c r="A94" s="26"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="26"/>
       <c r="D94" s="9">
         <v>93</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G94" s="5">
-        <v>1</v>
+      <c r="G94" s="19" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="23"/>
-      <c r="B95" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C95" s="23" t="s">
-        <v>25</v>
+      <c r="A95" s="26"/>
+      <c r="B95" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>102</v>
       </c>
       <c r="D95" s="9">
         <v>94</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G95" s="5">
-        <v>0</v>
+      <c r="G95" s="19" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="23"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="23"/>
+      <c r="A96" s="26"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="26"/>
       <c r="D96" s="9">
         <v>95</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G96" s="5">
-        <v>0</v>
+      <c r="G96" s="19" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
       <c r="B97" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C97" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C97" s="21" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="9">
         <v>96</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
       <c r="B98" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C98" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C98" s="21" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="9">
         <v>97</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
       <c r="B99" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C99" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C99" s="21" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="9">
         <v>98</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="9"/>
       <c r="B100" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>99</v>
+        <v>77</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="D100" s="9">
         <v>99</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
       <c r="B101" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C101" s="21" t="s">
         <v>102</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="D101" s="9">
         <v>100</v>
       </c>
-      <c r="E101" s="15" t="s">
+      <c r="E101" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
-      <c r="B102" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>25</v>
+      <c r="B102" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>102</v>
       </c>
       <c r="D102" s="9">
         <v>101</v>
       </c>
-      <c r="E102" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F102" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G102" s="15" t="s">
+      <c r="E102" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F102" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G102" s="19" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
-      <c r="B103" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>25</v>
+      <c r="B103" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="D103" s="9">
         <v>102</v>
       </c>
-      <c r="E103" s="15" t="s">
-        <v>105</v>
+      <c r="E103" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="F103" s="15" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="G103" s="15" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="9"/>
-      <c r="B104" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>99</v>
+      <c r="A104" s="24"/>
+      <c r="B104" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C104" s="24" t="s">
+        <v>102</v>
       </c>
       <c r="D104" s="9">
         <v>103</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="F104" s="15" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="20"/>
-      <c r="B105" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C105" s="19" t="s">
-        <v>99</v>
-      </c>
+      <c r="A105" s="25"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="25"/>
       <c r="D105" s="9">
         <v>104</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>100</v>
+        <v>178</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="20"/>
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
+      <c r="A106" s="28"/>
+      <c r="B106" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C106" s="28">
+        <v>485</v>
+      </c>
       <c r="D106" s="9">
         <v>105</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="F106" s="15" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="9"/>
-      <c r="B107" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="A107" s="28"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="28"/>
       <c r="D107" s="9">
         <v>106</v>
       </c>
       <c r="E107" s="15" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="F107" s="15" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="G107" s="15" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="9"/>
       <c r="B108" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>99</v>
+        <v>88</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="D108" s="9">
         <v>107</v>
       </c>
       <c r="E108" s="15" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="F108" s="15" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
       <c r="B109" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>25</v>
+        <v>89</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>181</v>
       </c>
       <c r="D109" s="9">
         <v>108</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F109" s="15" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="G109" s="15" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
       <c r="B110" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>99</v>
+        <v>90</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="D110" s="9">
         <v>109</v>
       </c>
       <c r="E110" s="15" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="F110" s="15" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="G110" s="15" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="9"/>
       <c r="B111" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>99</v>
+        <v>91</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="D111" s="9">
         <v>110</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="F111" s="15" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="9"/>
       <c r="B112" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>99</v>
+        <v>92</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="D112" s="9">
         <v>111</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="F112" s="15" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="G112" s="15" t="s">
         <v>100</v>
@@ -4456,34 +4195,38 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
-      <c r="B113" s="19" t="s">
-        <v>116</v>
+      <c r="B113" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="D113" s="9">
         <v>112</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="9"/>
-      <c r="B114" s="19"/>
-      <c r="C114" s="19"/>
+      <c r="A114" s="24"/>
+      <c r="B114" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C114" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="D114" s="9">
         <v>113</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="F114" s="15" t="s">
         <v>26</v>
@@ -4493,18 +4236,14 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="9"/>
-      <c r="B115" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>120</v>
-      </c>
+      <c r="A115" s="25"/>
+      <c r="B115" s="29"/>
+      <c r="C115" s="28"/>
       <c r="D115" s="9">
         <v>114</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="F115" s="15" t="s">
         <v>26</v>
@@ -4513,23 +4252,41 @@
         <v>26</v>
       </c>
     </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="9"/>
+      <c r="B116" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D116" s="9">
+        <v>115</v>
+      </c>
+      <c r="E116" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F116" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G116" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A87:A92"/>
-    <mergeCell ref="B87:B92"/>
-    <mergeCell ref="C87:C92"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="C81:C86"/>
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="A81:A86"/>
+  <mergeCells count="42">
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B9:B24"/>
+    <mergeCell ref="C9:C24"/>
+    <mergeCell ref="A9:A24"/>
     <mergeCell ref="A25:A40"/>
     <mergeCell ref="A41:A56"/>
     <mergeCell ref="A57:A72"/>
@@ -4542,17 +4299,24 @@
     <mergeCell ref="C41:C56"/>
     <mergeCell ref="B57:B72"/>
     <mergeCell ref="C57:C72"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B9:B24"/>
-    <mergeCell ref="C9:C24"/>
-    <mergeCell ref="A9:A24"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="C81:C86"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A87:A92"/>
+    <mergeCell ref="B87:B92"/>
+    <mergeCell ref="C87:C92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A95:A96"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4692,24 +4456,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" customWidth="1"/>
     <col min="2" max="2" width="20.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4717,7 +4481,7 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4725,23 +4489,79 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/config/project/board/BoardConfig.xlsx
+++ b/config/project/board/BoardConfig.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="186">
   <si>
     <t>组序号</t>
   </si>
@@ -1121,6 +1121,26 @@
   </si>
   <si>
     <t>cpu_dcm</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>do 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>do</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2151,8 +2171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E124" sqref="E124"/>
+    <sheetView topLeftCell="A43" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57:C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2887,7 +2907,7 @@
         <v>37</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="D41" s="9">
         <v>40</v>
@@ -3163,7 +3183,7 @@
         <v>38</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="D57" s="9">
         <v>56</v>
@@ -4459,7 +4479,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4513,15 +4533,15 @@
         <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>144</v>
       </c>
-      <c r="B7" t="s">
-        <v>145</v>
+      <c r="B7" s="23" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4567,5 +4587,6 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config/project/board/BoardConfig.xlsx
+++ b/config/project/board/BoardConfig.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="190">
   <si>
     <t>组序号</t>
   </si>
@@ -52,50 +52,6 @@
   </si>
   <si>
     <t>提示</t>
-  </si>
-  <si>
-    <t>demoGroup1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>demoGroup3</t>
-  </si>
-  <si>
-    <t>demoGroup4</t>
-  </si>
-  <si>
-    <t>demoGroup5</t>
-  </si>
-  <si>
-    <t>demoGroup2</t>
-  </si>
-  <si>
-    <t>demoGroup6</t>
-  </si>
-  <si>
-    <t>demoGroup7</t>
-  </si>
-  <si>
-    <t>把充电枪插入汽车1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>把充电枪插入汽车2</t>
-  </si>
-  <si>
-    <t>把充电枪插入汽车3</t>
-  </si>
-  <si>
-    <t>把充电枪插入汽车4</t>
-  </si>
-  <si>
-    <t>把充电枪插入汽车5</t>
-  </si>
-  <si>
-    <t>把充电枪插入汽车6</t>
-  </si>
-  <si>
-    <t>把充电枪插入汽车7</t>
   </si>
   <si>
     <t>外观内部</t>
@@ -1140,6 +1096,120 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 0</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>uart_k60</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>di_全合</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>请将1-16 di拨码开关 向上拨</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>请将1-16 di拨码开关 向下拨</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPIAD开关全关状态</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPIAD开关全开状态</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>请将spiadc 的4位拨码开关 向上拨</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>请将spiadc 的4位拨码开关 向下拨</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD采样(ADC开关17-18关闭)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD采样(ADC开关17-18打开)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>IODI防接反(关闭防接反)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭防接反开关</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>IODI防接反(打开防接反)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开防接反开关</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC0_D0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC1_D0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">关闭上 ADC 开关（17-18）， 关闭防接反开关，CC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>J7-1 和 J7-2/J7-3 断开，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>即向下拨</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">打开上 ADC 开关（17-18）， 打开防接反开关，CC J7-1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> J7-2/J7-3 短接，即向上拨</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1438,7 +1508,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1594,6 +1664,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1723,7 +1804,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1796,6 +1877,18 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1808,11 +1901,14 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2169,10 +2265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57:C72"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99:B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2213,2100 +2309,2174 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="10" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D2" s="9">
         <v>1</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D3" s="9">
         <v>2</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="11" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D4" s="9">
         <v>3</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>142</v>
+      <c r="A5" s="27"/>
+      <c r="B5" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>128</v>
       </c>
       <c r="D5" s="9">
         <v>4</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>26</v>
+        <v>125</v>
+      </c>
+      <c r="G5" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="26"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="9">
         <v>5</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>26</v>
+        <v>126</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="26"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="9">
         <v>6</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>26</v>
+        <v>127</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="13" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="D8" s="9">
         <v>7</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>138</v>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>124</v>
       </c>
       <c r="D9" s="9">
         <v>8</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="9">
         <v>9</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="9">
         <v>10</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="9">
         <v>11</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="9">
         <v>12</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="9">
         <v>13</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="9">
         <v>14</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="9">
         <v>15</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="9">
         <v>16</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="9">
         <v>17</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="9">
         <v>18</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="9">
         <v>19</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="9">
         <v>20</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="9">
         <v>21</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="9">
         <v>22</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="9">
         <v>23</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>102</v>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>88</v>
       </c>
       <c r="D25" s="9">
         <v>24</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="9">
         <v>25</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="9">
         <v>26</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="9">
         <v>27</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="9">
         <v>28</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="9">
         <v>29</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="9">
         <v>30</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="9">
         <v>31</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
       <c r="D33" s="9">
         <v>32</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="9">
         <v>33</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
       <c r="D35" s="9">
         <v>34</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
       <c r="D36" s="9">
         <v>35</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
       <c r="D37" s="9">
         <v>36</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
       <c r="D38" s="9">
         <v>37</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
       <c r="D39" s="9">
         <v>38</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
       <c r="D40" s="9">
         <v>39</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>145</v>
+      <c r="A41" s="30"/>
+      <c r="B41" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>131</v>
       </c>
       <c r="D41" s="9">
         <v>40</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G41" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
       <c r="D42" s="9">
         <v>41</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G42" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
       <c r="D43" s="9">
         <v>42</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G43" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
       <c r="D44" s="9">
         <v>43</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G44" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
       <c r="D45" s="9">
         <v>44</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G45" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
       <c r="D46" s="9">
         <v>45</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G46" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
       <c r="D47" s="9">
         <v>46</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G47" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
       <c r="D48" s="9">
         <v>47</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G48" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
       <c r="D49" s="9">
         <v>48</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G49" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
       <c r="D50" s="9">
         <v>49</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G50" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
       <c r="D51" s="9">
         <v>50</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G51" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
       <c r="D52" s="9">
         <v>51</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G52" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
       <c r="D53" s="9">
         <v>52</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G53" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
       <c r="D54" s="9">
         <v>53</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G54" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
       <c r="D55" s="9">
         <v>54</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G55" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
       <c r="D56" s="9">
         <v>55</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G56" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>145</v>
+      <c r="A57" s="30"/>
+      <c r="B57" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>131</v>
       </c>
       <c r="D57" s="9">
         <v>56</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G57" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
+      <c r="A58" s="30"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
       <c r="D58" s="9">
         <v>57</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G58" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
       <c r="D59" s="9">
         <v>58</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G59" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
       <c r="D60" s="9">
         <v>59</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G60" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
       <c r="D61" s="9">
         <v>60</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G61" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
       <c r="D62" s="9">
         <v>61</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G62" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="26"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
       <c r="D63" s="9">
         <v>62</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G63" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="26"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
       <c r="D64" s="9">
         <v>63</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G64" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
+      <c r="A65" s="30"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
       <c r="D65" s="9">
         <v>64</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G65" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
+      <c r="A66" s="30"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
       <c r="D66" s="9">
         <v>65</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G66" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="26"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
       <c r="D67" s="9">
         <v>66</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G67" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
       <c r="D68" s="9">
         <v>67</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G68" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
+      <c r="A69" s="30"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
       <c r="D69" s="9">
         <v>68</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G69" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="26"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
+      <c r="A70" s="30"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
       <c r="D70" s="9">
         <v>69</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G70" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="26"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
       <c r="D71" s="9">
         <v>70</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G71" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
+      <c r="A72" s="30"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
       <c r="D72" s="9">
         <v>71</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G72" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
-      <c r="B73" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>146</v>
+      <c r="A73" s="30"/>
+      <c r="B73" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>132</v>
       </c>
       <c r="D73" s="9">
         <v>72</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G73" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="26"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
+      <c r="A74" s="30"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
       <c r="D74" s="9">
         <v>73</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G74" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="26"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
+      <c r="A75" s="30"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
       <c r="D75" s="9">
         <v>74</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G75" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="26"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
+      <c r="A76" s="30"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
       <c r="D76" s="9">
         <v>75</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G76" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="26"/>
-      <c r="B77" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C77" s="26" t="s">
-        <v>146</v>
+      <c r="A77" s="30"/>
+      <c r="B77" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>132</v>
       </c>
       <c r="D77" s="9">
         <v>76</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G77" s="12">
         <v>3.3</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="26"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
+      <c r="A78" s="30"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
       <c r="D78" s="9">
         <v>77</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G78" s="12">
         <v>3.3</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="26"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
+      <c r="A79" s="30"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
       <c r="D79" s="9">
         <v>78</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G79" s="12">
         <v>3.3</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="26"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
+      <c r="A80" s="30"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
       <c r="D80" s="9">
         <v>79</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G80" s="12">
         <v>3.3</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
-      <c r="B81" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C81" s="26" t="s">
-        <v>147</v>
+      <c r="A81" s="32"/>
+      <c r="B81" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>133</v>
       </c>
       <c r="D81" s="9">
         <v>80</v>
       </c>
-      <c r="E81" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" s="12">
-        <v>1.3</v>
+      <c r="E81" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="F81" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="24">
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="26"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
+      <c r="A82" s="33"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
       <c r="D82" s="9">
         <v>81</v>
       </c>
-      <c r="E82" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G82" s="12">
-        <v>1.3</v>
+      <c r="E82" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="F82" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="24">
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="26"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
+      <c r="A83" s="33"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="33"/>
       <c r="D83" s="9">
         <v>82</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G83" s="12">
         <v>1.3</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="26"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
+      <c r="A84" s="33"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
       <c r="D84" s="9">
         <v>83</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G84" s="12">
         <v>1.3</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="26"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
+      <c r="A85" s="33"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="33"/>
       <c r="D85" s="9">
         <v>84</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G85" s="12">
         <v>1.3</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="26"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
+      <c r="A86" s="33"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
       <c r="D86" s="9">
         <v>85</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G86" s="12">
         <v>1.3</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="26"/>
-      <c r="B87" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C87" s="26" t="s">
-        <v>147</v>
-      </c>
+      <c r="A87" s="33"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
       <c r="D87" s="9">
         <v>86</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G87" s="12">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="26"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
+      <c r="A88" s="34"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="34"/>
       <c r="D88" s="9">
         <v>87</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G88" s="12">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="26"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
+      <c r="A89" s="32"/>
+      <c r="B89" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C89" s="32" t="s">
+        <v>133</v>
+      </c>
       <c r="D89" s="9">
         <v>88</v>
       </c>
-      <c r="E89" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G89" s="12">
-        <v>1</v>
+      <c r="E89" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="F89" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="26"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
+      <c r="A90" s="33"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="33"/>
       <c r="D90" s="9">
         <v>89</v>
       </c>
-      <c r="E90" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G90" s="12">
-        <v>1</v>
+      <c r="E90" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="F90" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="26"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
+      <c r="A91" s="33"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
       <c r="D91" s="9">
         <v>90</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G91" s="12">
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="26"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
+      <c r="A92" s="33"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
       <c r="D92" s="9">
         <v>91</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G92" s="12">
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="26"/>
-      <c r="B93" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C93" s="26" t="s">
-        <v>102</v>
-      </c>
+      <c r="A93" s="33"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
       <c r="D93" s="9">
         <v>92</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G93" s="19" t="s">
-        <v>148</v>
+        <v>12</v>
+      </c>
+      <c r="G93" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="26"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="26"/>
+      <c r="A94" s="33"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
       <c r="D94" s="9">
         <v>93</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G94" s="19" t="s">
-        <v>149</v>
+        <v>12</v>
+      </c>
+      <c r="G94" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="26"/>
-      <c r="B95" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C95" s="26" t="s">
-        <v>102</v>
-      </c>
+      <c r="A95" s="33"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="33"/>
       <c r="D95" s="9">
         <v>94</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" s="19" t="s">
-        <v>150</v>
+        <v>12</v>
+      </c>
+      <c r="G95" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="26"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
+      <c r="A96" s="34"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="34"/>
       <c r="D96" s="9">
         <v>95</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G96" s="19" t="s">
-        <v>151</v>
+        <v>12</v>
+      </c>
+      <c r="G96" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="9"/>
-      <c r="B97" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C97" s="21" t="s">
-        <v>25</v>
+      <c r="A97" s="30"/>
+      <c r="B97" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>88</v>
       </c>
       <c r="D97" s="9">
         <v>96</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G97" s="12" t="s">
-        <v>76</v>
+        <v>56</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="19" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="9"/>
-      <c r="B98" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>25</v>
-      </c>
+      <c r="A98" s="30"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
       <c r="D98" s="9">
         <v>97</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G98" s="12" t="s">
-        <v>76</v>
+        <v>57</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="19" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="9"/>
-      <c r="B99" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C99" s="21" t="s">
-        <v>25</v>
+      <c r="A99" s="30"/>
+      <c r="B99" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C99" s="30" t="s">
+        <v>88</v>
       </c>
       <c r="D99" s="9">
         <v>98</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99" s="12" t="s">
-        <v>76</v>
+        <v>56</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="19" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="9"/>
-      <c r="B100" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C100" s="19" t="s">
-        <v>78</v>
-      </c>
+      <c r="A100" s="30"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
       <c r="D100" s="9">
         <v>99</v>
       </c>
-      <c r="E100" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F100" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G100" s="15" t="s">
-        <v>80</v>
+      <c r="E100" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="19" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
-      <c r="B101" s="10" t="s">
-        <v>173</v>
+      <c r="B101" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="D101" s="9">
         <v>100</v>
       </c>
-      <c r="E101" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F101" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G101" s="15" t="s">
-        <v>79</v>
+      <c r="E101" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
-      <c r="B102" s="20" t="s">
-        <v>28</v>
+      <c r="B102" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="D102" s="9">
         <v>101</v>
       </c>
-      <c r="E102" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F102" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G102" s="19" t="s">
-        <v>100</v>
+      <c r="E102" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
-      <c r="B103" s="20" t="s">
-        <v>81</v>
+      <c r="B103" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="D103" s="9">
         <v>102</v>
       </c>
-      <c r="E103" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F103" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G103" s="15" t="s">
-        <v>79</v>
+      <c r="E103" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="24"/>
-      <c r="B104" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C104" s="24" t="s">
-        <v>102</v>
+      <c r="A104" s="9"/>
+      <c r="B104" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="D104" s="9">
         <v>103</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F104" s="15" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>177</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="25"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="25"/>
+      <c r="A105" s="9"/>
+      <c r="B105" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>88</v>
+      </c>
       <c r="D105" s="9">
         <v>104</v>
       </c>
-      <c r="E105" s="15" t="s">
-        <v>84</v>
+      <c r="E105" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>178</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="28"/>
-      <c r="B106" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C106" s="28">
-        <v>485</v>
+      <c r="A106" s="9"/>
+      <c r="B106" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="D106" s="9">
         <v>105</v>
       </c>
-      <c r="E106" s="15" t="s">
+      <c r="E106" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F106" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G106" s="15" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="28"/>
-      <c r="B107" s="29"/>
-      <c r="C107" s="28"/>
+      <c r="A107" s="9"/>
+      <c r="B107" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>162</v>
+      </c>
       <c r="D107" s="9">
         <v>106</v>
       </c>
-      <c r="E107" s="15" t="s">
-        <v>87</v>
+      <c r="E107" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="F107" s="15" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="G107" s="15" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="9"/>
-      <c r="B108" s="10" t="s">
+      <c r="A108" s="28"/>
+      <c r="B108" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C108" s="28" t="s">
         <v>88</v>
-      </c>
-      <c r="C108" s="19" t="s">
-        <v>25</v>
       </c>
       <c r="D108" s="9">
         <v>107</v>
       </c>
       <c r="E108" s="15" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="F108" s="15" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="9"/>
-      <c r="B109" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C109" s="19" t="s">
-        <v>181</v>
-      </c>
+      <c r="A109" s="29"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
       <c r="D109" s="9">
         <v>108</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="F109" s="15" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="G109" s="15" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="9"/>
-      <c r="B110" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C110" s="19" t="s">
-        <v>25</v>
+      <c r="A110" s="27"/>
+      <c r="B110" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C110" s="27">
+        <v>485</v>
       </c>
       <c r="D110" s="9">
         <v>109</v>
       </c>
       <c r="E110" s="15" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F110" s="15" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="G110" s="15" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="9"/>
-      <c r="B111" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C111" s="19" t="s">
-        <v>78</v>
-      </c>
+      <c r="A111" s="27"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="27"/>
       <c r="D111" s="9">
         <v>110</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F111" s="15" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="9"/>
       <c r="B112" s="10" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="D112" s="9">
         <v>111</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F112" s="15" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
       <c r="B113" s="10" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="D113" s="9">
         <v>112</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="24"/>
-      <c r="B114" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C114" s="28" t="s">
-        <v>25</v>
+      <c r="A114" s="9"/>
+      <c r="B114" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="D114" s="9">
         <v>113</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="F114" s="15" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="25"/>
-      <c r="B115" s="29"/>
-      <c r="C115" s="28"/>
+      <c r="A115" s="9"/>
+      <c r="B115" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="D115" s="9">
         <v>114</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="F115" s="15" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="G115" s="15" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
       <c r="B116" s="10" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D116" s="9">
         <v>115</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="F116" s="15" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>26</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="9"/>
+      <c r="B117" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D117" s="9">
+        <v>116</v>
+      </c>
+      <c r="E117" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F117" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G117" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="28"/>
+      <c r="B118" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C118" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="9">
+        <v>117</v>
+      </c>
+      <c r="E118" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F118" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="29"/>
+      <c r="B119" s="26"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="9">
+        <v>118</v>
+      </c>
+      <c r="E119" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F119" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="9"/>
+      <c r="B120" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D120" s="9">
+        <v>119</v>
+      </c>
+      <c r="E120" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F120" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" s="15" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B9:B24"/>
-    <mergeCell ref="C9:C24"/>
-    <mergeCell ref="A9:A24"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B89:B96"/>
+    <mergeCell ref="C89:C96"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="B81:B88"/>
+    <mergeCell ref="C81:C88"/>
+    <mergeCell ref="A81:A88"/>
     <mergeCell ref="A25:A40"/>
     <mergeCell ref="A41:A56"/>
     <mergeCell ref="A57:A72"/>
@@ -4319,24 +4489,18 @@
     <mergeCell ref="C41:C56"/>
     <mergeCell ref="B57:B72"/>
     <mergeCell ref="C57:C72"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="C81:C86"/>
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A87:A92"/>
-    <mergeCell ref="B87:B92"/>
-    <mergeCell ref="C87:C92"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B9:B24"/>
+    <mergeCell ref="C9:C24"/>
+    <mergeCell ref="A9:A24"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="A118:A119"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4347,16 +4511,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.26953125" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="35.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4376,21 +4540,21 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4398,43 +4562,43 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="C5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>181</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4442,16 +4606,23 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>182</v>
+      </c>
+      <c r="C8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" t="s">
+        <v>185</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
@@ -4478,7 +4649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -4490,98 +4661,98 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/config/project/board/BoardConfig.xlsx
+++ b/config/project/board/BoardConfig.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="198">
   <si>
     <t>组序号</t>
   </si>
@@ -709,10 +709,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>SPK测试</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>网络测试</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1210,6 +1206,52 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> J7-2/J7-3 短接，即向上拨</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_k64</t>
+  </si>
+  <si>
+    <t>board_k64</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freescale</t>
+  </si>
+  <si>
+    <t>电源板断电重启功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源板断电重启功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>pw_off</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB测试</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>usb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SB测试</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1804,7 +1846,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1884,31 +1926,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2265,10 +2313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99:B100"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2333,7 +2381,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="9">
         <v>2</v>
@@ -2345,7 +2393,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2354,7 +2402,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="9">
         <v>3</v>
@@ -2366,16 +2414,16 @@
         <v>12</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="31" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="34" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" s="9">
         <v>4</v>
@@ -2384,15 +2432,15 @@
         <v>17</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G5" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="30"/>
       <c r="D6" s="9">
         <v>5</v>
@@ -2401,15 +2449,15 @@
         <v>18</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G6" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="30"/>
       <c r="D7" s="9">
         <v>6</v>
@@ -2418,7 +2466,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G7" s="5">
         <v>2</v>
@@ -2430,7 +2478,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D8" s="9">
         <v>7</v>
@@ -2451,19 +2499,19 @@
         <v>21</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" s="9">
         <v>8</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2474,13 +2522,13 @@
         <v>9</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2491,13 +2539,13 @@
         <v>10</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2508,13 +2556,13 @@
         <v>11</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2525,13 +2573,13 @@
         <v>12</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2542,13 +2590,13 @@
         <v>13</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2559,13 +2607,13 @@
         <v>14</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2576,13 +2624,13 @@
         <v>15</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2593,13 +2641,13 @@
         <v>16</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2610,13 +2658,13 @@
         <v>17</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2627,13 +2675,13 @@
         <v>18</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2644,13 +2692,13 @@
         <v>19</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2661,13 +2709,13 @@
         <v>20</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2678,13 +2726,13 @@
         <v>21</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2695,13 +2743,13 @@
         <v>22</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2712,13 +2760,13 @@
         <v>23</v>
       </c>
       <c r="E24" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="18" t="s">
         <v>156</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2727,19 +2775,19 @@
         <v>22</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" s="9">
         <v>24</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2750,13 +2798,13 @@
         <v>25</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2767,13 +2815,13 @@
         <v>26</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2784,13 +2832,13 @@
         <v>27</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2801,13 +2849,13 @@
         <v>28</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2818,13 +2866,13 @@
         <v>29</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2835,13 +2883,13 @@
         <v>30</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2852,13 +2900,13 @@
         <v>31</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2869,13 +2917,13 @@
         <v>32</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2886,13 +2934,13 @@
         <v>33</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2903,13 +2951,13 @@
         <v>34</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2920,13 +2968,13 @@
         <v>35</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2937,13 +2985,13 @@
         <v>36</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2954,13 +3002,13 @@
         <v>37</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2971,13 +3019,13 @@
         <v>38</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2988,13 +3036,13 @@
         <v>39</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3003,7 +3051,7 @@
         <v>23</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="9">
         <v>40</v>
@@ -3279,7 +3327,7 @@
         <v>24</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D57" s="9">
         <v>56</v>
@@ -3555,7 +3603,7 @@
         <v>41</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D73" s="9">
         <v>72</v>
@@ -3627,7 +3675,7 @@
         <v>46</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D77" s="9">
         <v>76</v>
@@ -3694,18 +3742,18 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="32"/>
-      <c r="B81" s="32" t="s">
+      <c r="A81" s="31"/>
+      <c r="B81" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C81" s="32" t="s">
-        <v>133</v>
+      <c r="C81" s="31" t="s">
+        <v>132</v>
       </c>
       <c r="D81" s="9">
         <v>80</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F81" s="25" t="s">
         <v>12</v>
@@ -3715,14 +3763,14 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="33"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="33"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="32"/>
       <c r="D82" s="9">
         <v>81</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F82" s="25" t="s">
         <v>12</v>
@@ -3732,9 +3780,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="33"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="33"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
       <c r="D83" s="9">
         <v>82</v>
       </c>
@@ -3749,9 +3797,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="33"/>
-      <c r="B84" s="33"/>
-      <c r="C84" s="33"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
       <c r="D84" s="9">
         <v>83</v>
       </c>
@@ -3766,9 +3814,9 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="33"/>
-      <c r="B85" s="33"/>
-      <c r="C85" s="33"/>
+      <c r="A85" s="32"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
       <c r="D85" s="9">
         <v>84</v>
       </c>
@@ -3783,9 +3831,9 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="33"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
+      <c r="A86" s="32"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
       <c r="D86" s="9">
         <v>85</v>
       </c>
@@ -3800,9 +3848,9 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="33"/>
-      <c r="B87" s="33"/>
-      <c r="C87" s="33"/>
+      <c r="A87" s="32"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
       <c r="D87" s="9">
         <v>86</v>
       </c>
@@ -3817,9 +3865,9 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="34"/>
-      <c r="B88" s="34"/>
-      <c r="C88" s="34"/>
+      <c r="A88" s="33"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
       <c r="D88" s="9">
         <v>87</v>
       </c>
@@ -3834,18 +3882,18 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="32"/>
-      <c r="B89" s="32" t="s">
+      <c r="A89" s="31"/>
+      <c r="B89" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C89" s="32" t="s">
-        <v>133</v>
+      <c r="C89" s="31" t="s">
+        <v>132</v>
       </c>
       <c r="D89" s="9">
         <v>88</v>
       </c>
       <c r="E89" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F89" s="25" t="s">
         <v>12</v>
@@ -3855,14 +3903,14 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="33"/>
-      <c r="B90" s="33"/>
-      <c r="C90" s="33"/>
+      <c r="A90" s="32"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="32"/>
       <c r="D90" s="9">
         <v>89</v>
       </c>
       <c r="E90" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F90" s="25" t="s">
         <v>12</v>
@@ -3872,9 +3920,9 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="33"/>
-      <c r="B91" s="33"/>
-      <c r="C91" s="33"/>
+      <c r="A91" s="32"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="32"/>
       <c r="D91" s="9">
         <v>90</v>
       </c>
@@ -3889,9 +3937,9 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="33"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="33"/>
+      <c r="A92" s="32"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="32"/>
       <c r="D92" s="9">
         <v>91</v>
       </c>
@@ -3906,9 +3954,9 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="33"/>
-      <c r="B93" s="33"/>
-      <c r="C93" s="33"/>
+      <c r="A93" s="32"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
       <c r="D93" s="9">
         <v>92</v>
       </c>
@@ -3923,9 +3971,9 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="33"/>
-      <c r="B94" s="33"/>
-      <c r="C94" s="33"/>
+      <c r="A94" s="32"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="32"/>
       <c r="D94" s="9">
         <v>93</v>
       </c>
@@ -3940,9 +3988,9 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="33"/>
-      <c r="B95" s="33"/>
-      <c r="C95" s="33"/>
+      <c r="A95" s="32"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
       <c r="D95" s="9">
         <v>94</v>
       </c>
@@ -3957,9 +4005,9 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="34"/>
-      <c r="B96" s="34"/>
-      <c r="C96" s="34"/>
+      <c r="A96" s="33"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="33"/>
       <c r="D96" s="9">
         <v>95</v>
       </c>
@@ -3979,7 +4027,7 @@
         <v>55</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="D97" s="9">
         <v>96</v>
@@ -3991,7 +4039,7 @@
         <v>12</v>
       </c>
       <c r="G97" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4008,7 +4056,7 @@
         <v>12</v>
       </c>
       <c r="G98" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -4017,7 +4065,7 @@
         <v>58</v>
       </c>
       <c r="C99" s="30" t="s">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="D99" s="9">
         <v>98</v>
@@ -4029,7 +4077,7 @@
         <v>12</v>
       </c>
       <c r="G99" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4046,7 +4094,7 @@
         <v>12</v>
       </c>
       <c r="G100" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4136,10 +4184,10 @@
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
       <c r="B105" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C105" s="21" t="s">
-        <v>88</v>
+        <v>158</v>
+      </c>
+      <c r="C105" s="27" t="s">
+        <v>189</v>
       </c>
       <c r="D105" s="9">
         <v>104</v>
@@ -4151,7 +4199,7 @@
         <v>65</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4159,8 +4207,8 @@
       <c r="B106" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C106" s="21" t="s">
-        <v>88</v>
+      <c r="C106" s="27" t="s">
+        <v>189</v>
       </c>
       <c r="D106" s="9">
         <v>105</v>
@@ -4172,7 +4220,7 @@
         <v>12</v>
       </c>
       <c r="G106" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4181,7 +4229,7 @@
         <v>67</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D107" s="9">
         <v>106</v>
@@ -4202,7 +4250,7 @@
         <v>68</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="D108" s="9">
         <v>107</v>
@@ -4214,7 +4262,7 @@
         <v>65</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4231,15 +4279,15 @@
         <v>65</v>
       </c>
       <c r="G109" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="27"/>
-      <c r="B110" s="26" t="s">
+      <c r="A110" s="35"/>
+      <c r="B110" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C110" s="27">
+      <c r="C110" s="35">
         <v>485</v>
       </c>
       <c r="D110" s="9">
@@ -4256,9 +4304,9 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="27"/>
-      <c r="B111" s="26"/>
-      <c r="C111" s="27"/>
+      <c r="A111" s="35"/>
+      <c r="B111" s="36"/>
+      <c r="C111" s="35"/>
       <c r="D111" s="9">
         <v>110</v>
       </c>
@@ -4299,7 +4347,7 @@
         <v>75</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D113" s="9">
         <v>112</v>
@@ -4317,16 +4365,16 @@
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
       <c r="B114" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C114" s="19" t="s">
-        <v>11</v>
+        <v>195</v>
+      </c>
+      <c r="C114" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="D114" s="9">
         <v>113</v>
       </c>
-      <c r="E114" s="15" t="s">
-        <v>76</v>
+      <c r="E114" s="27" t="s">
+        <v>197</v>
       </c>
       <c r="F114" s="15" t="s">
         <v>65</v>
@@ -4338,7 +4386,7 @@
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
       <c r="B115" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C115" s="19" t="s">
         <v>64</v>
@@ -4347,7 +4395,7 @@
         <v>114</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F115" s="15" t="s">
         <v>65</v>
@@ -4359,28 +4407,28 @@
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
       <c r="B116" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="D116" s="9">
         <v>115</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F116" s="15" t="s">
         <v>65</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="9"/>
       <c r="B117" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C117" s="19" t="s">
         <v>64</v>
@@ -4389,7 +4437,7 @@
         <v>116</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F117" s="15" t="s">
         <v>65</v>
@@ -4400,17 +4448,17 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="28"/>
-      <c r="B118" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C118" s="27" t="s">
+      <c r="B118" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C118" s="35" t="s">
         <v>11</v>
       </c>
       <c r="D118" s="9">
         <v>117</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F118" s="15" t="s">
         <v>12</v>
@@ -4421,13 +4469,13 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="29"/>
-      <c r="B119" s="26"/>
-      <c r="C119" s="27"/>
+      <c r="B119" s="36"/>
+      <c r="C119" s="35"/>
       <c r="D119" s="9">
         <v>118</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F119" s="15" t="s">
         <v>12</v>
@@ -4439,44 +4487,59 @@
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="9"/>
       <c r="B120" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C120" s="19" t="s">
         <v>83</v>
-      </c>
-      <c r="C120" s="19" t="s">
-        <v>84</v>
       </c>
       <c r="D120" s="9">
         <v>119</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F120" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G120" s="15" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="9"/>
+      <c r="B121" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C121" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="D121" s="9">
+        <v>120</v>
+      </c>
+      <c r="E121" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="F121" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" s="26" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B89:B96"/>
-    <mergeCell ref="C89:C96"/>
-    <mergeCell ref="A89:A96"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="B81:B88"/>
-    <mergeCell ref="C81:C88"/>
-    <mergeCell ref="A81:A88"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B9:B24"/>
+    <mergeCell ref="C9:C24"/>
+    <mergeCell ref="A9:A24"/>
     <mergeCell ref="A25:A40"/>
     <mergeCell ref="A41:A56"/>
     <mergeCell ref="A57:A72"/>
@@ -4489,18 +4552,24 @@
     <mergeCell ref="C41:C56"/>
     <mergeCell ref="B57:B72"/>
     <mergeCell ref="C57:C72"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B9:B24"/>
-    <mergeCell ref="C9:C24"/>
-    <mergeCell ref="A9:A24"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B89:B96"/>
+    <mergeCell ref="C89:C96"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="B81:B88"/>
+    <mergeCell ref="C81:C88"/>
+    <mergeCell ref="A81:A88"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A99:A100"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4540,10 +4609,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4551,10 +4620,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4562,10 +4631,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4573,10 +4642,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4584,10 +4653,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4595,10 +4664,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4606,10 +4675,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" t="s">
         <v>182</v>
-      </c>
-      <c r="C8" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4617,10 +4686,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" t="s">
         <v>184</v>
-      </c>
-      <c r="C9" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -4647,10 +4716,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4661,10 +4730,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
         <v>89</v>
-      </c>
-      <c r="B1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4672,7 +4741,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4680,15 +4749,15 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
         <v>122</v>
-      </c>
-      <c r="B4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4696,63 +4765,71 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" t="s">
         <v>139</v>
-      </c>
-      <c r="B9" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>160</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>165</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>169</v>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/config/project/board/BoardConfig.xlsx
+++ b/config/project/board/BoardConfig.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
-    <sheet name="提示" sheetId="37" r:id="rId2"/>
-    <sheet name="继电器" sheetId="63" r:id="rId3"/>
-    <sheet name="board" sheetId="64" r:id="rId4"/>
+    <sheet name="param" sheetId="65" r:id="rId2"/>
+    <sheet name="提示" sheetId="37" r:id="rId3"/>
+    <sheet name="继电器" sheetId="63" r:id="rId4"/>
+    <sheet name="board" sheetId="64" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="223">
   <si>
     <t>组序号</t>
   </si>
@@ -55,19 +56,19 @@
   </si>
   <si>
     <t>外观内部</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>FRAM读写测试</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -83,15 +84,15 @@
       </rPr>
       <t>PIFLASH测试</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>SPIFLASH测试</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CAN测试</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -107,7 +108,7 @@
       </rPr>
       <t>an0</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -123,7 +124,7 @@
       </rPr>
       <t>an1</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -139,11 +140,11 @@
       </rPr>
       <t>an2</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>uart测试</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -159,11 +160,11 @@
       </rPr>
       <t>_全关</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>di_全合</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -179,11 +180,11 @@
       </rPr>
       <t>o_全亮</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>do_全灭</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -199,7 +200,7 @@
       </rPr>
       <t>O00</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -578,11 +579,11 @@
   </si>
   <si>
     <t>SPIAD开关全关状态</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>SPI_ADC0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>SPI_ADC1</t>
@@ -595,22 +596,22 @@
   </si>
   <si>
     <t>SPIAD开关全开状态</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>AD采样(ADC开关17-18打开)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ADC0_SE17</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ADC0_SE18</t>
   </si>
   <si>
     <t>ADC1_SE4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ADC1_SE5</t>
@@ -623,350 +624,322 @@
   </si>
   <si>
     <t>AD采样(ADC开关17-18关闭)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>IODI防接反(关闭防接反)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>IO_DI4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>IO_DI5</t>
   </si>
   <si>
     <t>IODI防接反(打开防接反)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>看门狗功能</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级程序</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>看门狗出厂设备</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>合格</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>电池电压</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3.2V</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>时钟测试(rtc)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>选枪按键测试(key)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>按下枪1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>按下枪2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>485及读卡器口测试</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CARD1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CARD2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPRS功能</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>LED板测试</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>网络测试</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>主从通讯</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>看门狗功能</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级程序</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>升级正确BOOT程序</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>升级正确应用程序</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>看门狗出厂设备</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>看门狗能强制复位</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>OK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>fr</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>board</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>组名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>命令</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN01 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN02 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN03 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN04 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN05 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN06 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN07 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN08 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN09 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN10 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN11 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN12 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN13 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN14 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN15 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN01 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN02 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN03 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN04 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN05 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN06 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN07 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN08 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN09 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN10 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN11 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN12 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN13 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN14 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN15 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>di_全关</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>di</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>board</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>can 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>can 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>can 2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>can</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>do_全亮</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>do_全灭</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>do</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>spiadc</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>adc</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>IO_DI4 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>IO_DI5 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>IO_DI4 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>IO_DI5 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>IODI防接反(关闭防接反)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>IODI防接反(打开防接反)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>iodi</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN01</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN02</t>
@@ -1015,11 +988,11 @@
   </si>
   <si>
     <t>DIN16 = 0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DIN16 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>FRAM读写测试</t>
@@ -1041,43 +1014,43 @@
       </rPr>
       <t>tc</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>rtc</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>key1 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>key2 = 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>选枪按键测试(key)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>key</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>disp</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>主从通讯</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>cpu_dcm</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>do 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1093,71 +1066,71 @@
       </rPr>
       <t xml:space="preserve"> 0</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>uart_k60</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>di_全合</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>请将1-16 di拨码开关 向上拨</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>请将1-16 di拨码开关 向下拨</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>SPIAD开关全关状态</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>SPIAD开关全开状态</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>请将spiadc 的4位拨码开关 向上拨</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>请将spiadc 的4位拨码开关 向下拨</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>AD采样(ADC开关17-18关闭)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>AD采样(ADC开关17-18打开)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>IODI防接反(关闭防接反)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>关闭防接反开关</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>IODI防接反(打开防接反)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>打开防接反开关</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ADC0_D0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ADC1_D0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1168,6 +1141,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>J7-1 和 J7-2/J7-3 断开，</t>
@@ -1182,7 +1156,7 @@
       </rPr>
       <t>即向下拨</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1193,6 +1167,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>和</t>
@@ -1207,37 +1182,37 @@
       </rPr>
       <t xml:space="preserve"> J7-2/J7-3 短接，即向上拨</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>board_k64</t>
   </si>
   <si>
     <t>board_k64</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Freescale</t>
   </si>
   <si>
     <t>电源板断电重启功能</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>电源板断电重启功能</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>pw_off</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>USB测试</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>usb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1253,14 +1228,183 @@
       </rPr>
       <t>SB测试</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPRS拨号</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramCheck</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>枪编号</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>GPRS拨号</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>看门狗插片检查</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>看门狗短路插片 JP2 升完程序后拆下</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>看门狗插片检查</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级程序</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">用 J-LINK 烧写 boot 程序，然后烧写整机出厂应用程序 基板程序烧写（U 盘升级）                 语音程序烧写（U 盘升级） </t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级K60程序</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>升级K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程序</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件自检</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件版本检查</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramCheck</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCM_BOOT版本</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCM_BOOT应用软件版本</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制板BOOT版本</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制板应用软件版本</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译时间</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED板刷卡显示</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>car</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>看门狗检查</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>StubCmd</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级K64程序</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级K60程序</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1275,15 +1419,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1291,23 +1458,27 @@
       <sz val="18"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1315,6 +1486,7 @@
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1322,18 +1494,21 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1341,6 +1516,7 @@
       <sz val="11"/>
       <color indexed="23"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1348,6 +1524,7 @@
       <sz val="15"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1355,6 +1532,7 @@
       <sz val="11"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1362,6 +1540,7 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1369,6 +1548,7 @@
       <sz val="13"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1376,29 +1556,45 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1718,135 +1914,136 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1856,10 +2053,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1868,7 +2065,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1880,16 +2077,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1898,7 +2095,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1907,19 +2104,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1928,7 +2125,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1937,29 +2174,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="2"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="3"/>
@@ -1985,6 +2234,7 @@
     <cellStyle name="标题 4" xfId="23" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="24" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 3" xfId="42"/>
     <cellStyle name="好" xfId="25" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="26" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="27" builtinId="22" customBuiltin="1"/>
@@ -2313,10 +2563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView topLeftCell="A109" zoomScale="85" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122:XFD122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2381,7 +2631,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D3" s="9">
         <v>2</v>
@@ -2393,7 +2643,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2402,7 +2652,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D4" s="9">
         <v>3</v>
@@ -2414,16 +2664,16 @@
         <v>12</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="34" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>127</v>
+      <c r="C5" s="46" t="s">
+        <v>120</v>
       </c>
       <c r="D5" s="9">
         <v>4</v>
@@ -2432,16 +2682,16 @@
         <v>17</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G5" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="30"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="9">
         <v>5</v>
       </c>
@@ -2449,16 +2699,16 @@
         <v>18</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G6" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="30"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="9">
         <v>6</v>
       </c>
@@ -2466,7 +2716,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G7" s="5">
         <v>2</v>
@@ -2478,7 +2728,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D8" s="9">
         <v>7</v>
@@ -2494,564 +2744,564 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30" t="s">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>123</v>
+      <c r="C9" s="46" t="s">
+        <v>116</v>
       </c>
       <c r="D9" s="9">
         <v>8</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="9">
         <v>9</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="9">
         <v>10</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="9">
         <v>11</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="9">
         <v>12</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="9">
         <v>13</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="9">
         <v>14</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="9">
         <v>15</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="9">
         <v>16</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="9">
         <v>17</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="9">
         <v>18</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="9">
         <v>19</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="9">
         <v>20</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="9">
         <v>21</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="9">
         <v>22</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
       <c r="D24" s="9">
         <v>23</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30" t="s">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="30" t="s">
-        <v>87</v>
+      <c r="C25" s="46" t="s">
+        <v>80</v>
       </c>
       <c r="D25" s="9">
         <v>24</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
       <c r="D26" s="9">
         <v>25</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
       <c r="D27" s="9">
         <v>26</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
       <c r="D28" s="9">
         <v>27</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
       <c r="D29" s="9">
         <v>28</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
       <c r="D30" s="9">
         <v>29</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="9">
         <v>30</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="9">
         <v>31</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
       <c r="D33" s="9">
         <v>32</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="9">
         <v>33</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
       <c r="D35" s="9">
         <v>34</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="9">
         <v>35</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
       <c r="D37" s="9">
         <v>36</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
       <c r="D38" s="9">
         <v>37</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
       <c r="D39" s="9">
         <v>38</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
       <c r="D40" s="9">
         <v>39</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30" t="s">
+      <c r="A41" s="46"/>
+      <c r="B41" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="30" t="s">
-        <v>130</v>
+      <c r="C41" s="46" t="s">
+        <v>123</v>
       </c>
       <c r="D41" s="9">
         <v>40</v>
@@ -3067,9 +3317,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
       <c r="D42" s="9">
         <v>41</v>
       </c>
@@ -3084,9 +3334,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
       <c r="D43" s="9">
         <v>42</v>
       </c>
@@ -3101,9 +3351,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
       <c r="D44" s="9">
         <v>43</v>
       </c>
@@ -3118,9 +3368,9 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
       <c r="D45" s="9">
         <v>44</v>
       </c>
@@ -3135,9 +3385,9 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
       <c r="D46" s="9">
         <v>45</v>
       </c>
@@ -3152,9 +3402,9 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
       <c r="D47" s="9">
         <v>46</v>
       </c>
@@ -3169,9 +3419,9 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
       <c r="D48" s="9">
         <v>47</v>
       </c>
@@ -3186,9 +3436,9 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
       <c r="D49" s="9">
         <v>48</v>
       </c>
@@ -3203,9 +3453,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
       <c r="D50" s="9">
         <v>49</v>
       </c>
@@ -3220,9 +3470,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
       <c r="D51" s="9">
         <v>50</v>
       </c>
@@ -3237,9 +3487,9 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
+      <c r="A52" s="46"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
       <c r="D52" s="9">
         <v>51</v>
       </c>
@@ -3254,9 +3504,9 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
       <c r="D53" s="9">
         <v>52</v>
       </c>
@@ -3271,9 +3521,9 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
+      <c r="A54" s="46"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
       <c r="D54" s="9">
         <v>53</v>
       </c>
@@ -3288,9 +3538,9 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
+      <c r="A55" s="46"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
       <c r="D55" s="9">
         <v>54</v>
       </c>
@@ -3305,9 +3555,9 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="30"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
+      <c r="A56" s="46"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
       <c r="D56" s="9">
         <v>55</v>
       </c>
@@ -3322,12 +3572,12 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="30"/>
-      <c r="B57" s="30" t="s">
+      <c r="A57" s="46"/>
+      <c r="B57" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="30" t="s">
-        <v>130</v>
+      <c r="C57" s="46" t="s">
+        <v>123</v>
       </c>
       <c r="D57" s="9">
         <v>56</v>
@@ -3343,9 +3593,9 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
+      <c r="A58" s="46"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
       <c r="D58" s="9">
         <v>57</v>
       </c>
@@ -3360,9 +3610,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
+      <c r="A59" s="46"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
       <c r="D59" s="9">
         <v>58</v>
       </c>
@@ -3377,9 +3627,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="30"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
+      <c r="A60" s="46"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="46"/>
       <c r="D60" s="9">
         <v>59</v>
       </c>
@@ -3394,9 +3644,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="30"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
+      <c r="A61" s="46"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
       <c r="D61" s="9">
         <v>60</v>
       </c>
@@ -3411,9 +3661,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="30"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
+      <c r="A62" s="46"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="46"/>
       <c r="D62" s="9">
         <v>61</v>
       </c>
@@ -3428,9 +3678,9 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="30"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
+      <c r="A63" s="46"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="46"/>
       <c r="D63" s="9">
         <v>62</v>
       </c>
@@ -3445,9 +3695,9 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="30"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
+      <c r="A64" s="46"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="46"/>
       <c r="D64" s="9">
         <v>63</v>
       </c>
@@ -3462,9 +3712,9 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="30"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
+      <c r="A65" s="46"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="46"/>
       <c r="D65" s="9">
         <v>64</v>
       </c>
@@ -3479,9 +3729,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="30"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
+      <c r="A66" s="46"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
       <c r="D66" s="9">
         <v>65</v>
       </c>
@@ -3496,9 +3746,9 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="30"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
+      <c r="A67" s="46"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
       <c r="D67" s="9">
         <v>66</v>
       </c>
@@ -3513,9 +3763,9 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="30"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
+      <c r="A68" s="46"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
       <c r="D68" s="9">
         <v>67</v>
       </c>
@@ -3530,9 +3780,9 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="30"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
+      <c r="A69" s="46"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="46"/>
       <c r="D69" s="9">
         <v>68</v>
       </c>
@@ -3547,9 +3797,9 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="30"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
+      <c r="A70" s="46"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="46"/>
       <c r="D70" s="9">
         <v>69</v>
       </c>
@@ -3564,9 +3814,9 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="30"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
+      <c r="A71" s="46"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="46"/>
       <c r="D71" s="9">
         <v>70</v>
       </c>
@@ -3581,9 +3831,9 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="30"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="30"/>
+      <c r="A72" s="46"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="46"/>
       <c r="D72" s="9">
         <v>71</v>
       </c>
@@ -3598,12 +3848,12 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="30"/>
-      <c r="B73" s="30" t="s">
+      <c r="A73" s="46"/>
+      <c r="B73" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C73" s="30" t="s">
-        <v>131</v>
+      <c r="C73" s="46" t="s">
+        <v>124</v>
       </c>
       <c r="D73" s="9">
         <v>72</v>
@@ -3619,9 +3869,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="30"/>
-      <c r="B74" s="30"/>
-      <c r="C74" s="30"/>
+      <c r="A74" s="46"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="46"/>
       <c r="D74" s="9">
         <v>73</v>
       </c>
@@ -3636,9 +3886,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="30"/>
-      <c r="B75" s="30"/>
-      <c r="C75" s="30"/>
+      <c r="A75" s="46"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
       <c r="D75" s="9">
         <v>74</v>
       </c>
@@ -3653,9 +3903,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="30"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="30"/>
+      <c r="A76" s="46"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="46"/>
       <c r="D76" s="9">
         <v>75</v>
       </c>
@@ -3670,12 +3920,12 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="30"/>
-      <c r="B77" s="30" t="s">
+      <c r="A77" s="46"/>
+      <c r="B77" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C77" s="30" t="s">
-        <v>131</v>
+      <c r="C77" s="46" t="s">
+        <v>124</v>
       </c>
       <c r="D77" s="9">
         <v>76</v>
@@ -3691,9 +3941,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="30"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
+      <c r="A78" s="46"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="46"/>
       <c r="D78" s="9">
         <v>77</v>
       </c>
@@ -3708,9 +3958,9 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="30"/>
-      <c r="B79" s="30"/>
-      <c r="C79" s="30"/>
+      <c r="A79" s="46"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="46"/>
       <c r="D79" s="9">
         <v>78</v>
       </c>
@@ -3725,9 +3975,9 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="30"/>
-      <c r="B80" s="30"/>
-      <c r="C80" s="30"/>
+      <c r="A80" s="46"/>
+      <c r="B80" s="46"/>
+      <c r="C80" s="46"/>
       <c r="D80" s="9">
         <v>79</v>
       </c>
@@ -3742,18 +3992,18 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="31"/>
-      <c r="B81" s="31" t="s">
+      <c r="A81" s="47"/>
+      <c r="B81" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C81" s="31" t="s">
-        <v>132</v>
+      <c r="C81" s="47" t="s">
+        <v>125</v>
       </c>
       <c r="D81" s="9">
         <v>80</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F81" s="25" t="s">
         <v>12</v>
@@ -3763,14 +4013,14 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="32"/>
-      <c r="B82" s="32"/>
-      <c r="C82" s="32"/>
+      <c r="A82" s="48"/>
+      <c r="B82" s="48"/>
+      <c r="C82" s="48"/>
       <c r="D82" s="9">
         <v>81</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F82" s="25" t="s">
         <v>12</v>
@@ -3780,9 +4030,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="32"/>
-      <c r="B83" s="32"/>
-      <c r="C83" s="32"/>
+      <c r="A83" s="48"/>
+      <c r="B83" s="48"/>
+      <c r="C83" s="48"/>
       <c r="D83" s="9">
         <v>82</v>
       </c>
@@ -3797,9 +4047,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="32"/>
-      <c r="B84" s="32"/>
-      <c r="C84" s="32"/>
+      <c r="A84" s="48"/>
+      <c r="B84" s="48"/>
+      <c r="C84" s="48"/>
       <c r="D84" s="9">
         <v>83</v>
       </c>
@@ -3814,9 +4064,9 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="32"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="32"/>
+      <c r="A85" s="48"/>
+      <c r="B85" s="48"/>
+      <c r="C85" s="48"/>
       <c r="D85" s="9">
         <v>84</v>
       </c>
@@ -3831,9 +4081,9 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="32"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="32"/>
+      <c r="A86" s="48"/>
+      <c r="B86" s="48"/>
+      <c r="C86" s="48"/>
       <c r="D86" s="9">
         <v>85</v>
       </c>
@@ -3848,9 +4098,9 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="32"/>
-      <c r="B87" s="32"/>
-      <c r="C87" s="32"/>
+      <c r="A87" s="48"/>
+      <c r="B87" s="48"/>
+      <c r="C87" s="48"/>
       <c r="D87" s="9">
         <v>86</v>
       </c>
@@ -3865,9 +4115,9 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="33"/>
-      <c r="B88" s="33"/>
-      <c r="C88" s="33"/>
+      <c r="A88" s="49"/>
+      <c r="B88" s="49"/>
+      <c r="C88" s="49"/>
       <c r="D88" s="9">
         <v>87</v>
       </c>
@@ -3882,18 +4132,18 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="31"/>
-      <c r="B89" s="31" t="s">
+      <c r="A89" s="47"/>
+      <c r="B89" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C89" s="31" t="s">
-        <v>132</v>
+      <c r="C89" s="47" t="s">
+        <v>125</v>
       </c>
       <c r="D89" s="9">
         <v>88</v>
       </c>
       <c r="E89" s="24" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F89" s="25" t="s">
         <v>12</v>
@@ -3903,14 +4153,14 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="32"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="32"/>
+      <c r="A90" s="48"/>
+      <c r="B90" s="48"/>
+      <c r="C90" s="48"/>
       <c r="D90" s="9">
         <v>89</v>
       </c>
       <c r="E90" s="24" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F90" s="25" t="s">
         <v>12</v>
@@ -3920,9 +4170,9 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="32"/>
-      <c r="B91" s="32"/>
-      <c r="C91" s="32"/>
+      <c r="A91" s="48"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="48"/>
       <c r="D91" s="9">
         <v>90</v>
       </c>
@@ -3937,9 +4187,9 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="32"/>
-      <c r="B92" s="32"/>
-      <c r="C92" s="32"/>
+      <c r="A92" s="48"/>
+      <c r="B92" s="48"/>
+      <c r="C92" s="48"/>
       <c r="D92" s="9">
         <v>91</v>
       </c>
@@ -3954,9 +4204,9 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="32"/>
-      <c r="B93" s="32"/>
-      <c r="C93" s="32"/>
+      <c r="A93" s="48"/>
+      <c r="B93" s="48"/>
+      <c r="C93" s="48"/>
       <c r="D93" s="9">
         <v>92</v>
       </c>
@@ -3971,9 +4221,9 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="32"/>
-      <c r="B94" s="32"/>
-      <c r="C94" s="32"/>
+      <c r="A94" s="48"/>
+      <c r="B94" s="48"/>
+      <c r="C94" s="48"/>
       <c r="D94" s="9">
         <v>93</v>
       </c>
@@ -3988,9 +4238,9 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="32"/>
-      <c r="B95" s="32"/>
-      <c r="C95" s="32"/>
+      <c r="A95" s="48"/>
+      <c r="B95" s="48"/>
+      <c r="C95" s="48"/>
       <c r="D95" s="9">
         <v>94</v>
       </c>
@@ -4005,9 +4255,9 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="33"/>
-      <c r="B96" s="33"/>
-      <c r="C96" s="33"/>
+      <c r="A96" s="49"/>
+      <c r="B96" s="49"/>
+      <c r="C96" s="49"/>
       <c r="D96" s="9">
         <v>95</v>
       </c>
@@ -4022,12 +4272,12 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="30"/>
-      <c r="B97" s="30" t="s">
+      <c r="A97" s="46"/>
+      <c r="B97" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C97" s="30" t="s">
-        <v>190</v>
+      <c r="C97" s="46" t="s">
+        <v>80</v>
       </c>
       <c r="D97" s="9">
         <v>96</v>
@@ -4039,13 +4289,13 @@
         <v>12</v>
       </c>
       <c r="G97" s="19" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="30"/>
-      <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
+      <c r="A98" s="46"/>
+      <c r="B98" s="46"/>
+      <c r="C98" s="46"/>
       <c r="D98" s="9">
         <v>97</v>
       </c>
@@ -4056,16 +4306,16 @@
         <v>12</v>
       </c>
       <c r="G98" s="19" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="30"/>
-      <c r="B99" s="30" t="s">
+      <c r="A99" s="46"/>
+      <c r="B99" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C99" s="30" t="s">
-        <v>190</v>
+      <c r="C99" s="46" t="s">
+        <v>80</v>
       </c>
       <c r="D99" s="9">
         <v>98</v>
@@ -4077,13 +4327,13 @@
         <v>12</v>
       </c>
       <c r="G99" s="19" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="30"/>
-      <c r="B100" s="30"/>
-      <c r="C100" s="30"/>
+      <c r="A100" s="46"/>
+      <c r="B100" s="46"/>
+      <c r="C100" s="46"/>
       <c r="D100" s="9">
         <v>99</v>
       </c>
@@ -4094,7 +4344,7 @@
         <v>12</v>
       </c>
       <c r="G100" s="19" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4115,34 +4365,34 @@
         <v>12</v>
       </c>
       <c r="G101" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
-      <c r="B102" s="11" t="s">
-        <v>60</v>
+      <c r="B102" s="43" t="s">
+        <v>204</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>11</v>
+        <v>220</v>
       </c>
       <c r="D102" s="9">
         <v>101</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>60</v>
+        <v>204</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G102" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="B103" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C103" s="21" t="s">
         <v>11</v>
@@ -4151,43 +4401,43 @@
         <v>102</v>
       </c>
       <c r="E103" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" s="12" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
       <c r="B104" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C104" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="C104" s="19" t="s">
-        <v>64</v>
       </c>
       <c r="D104" s="9">
         <v>103</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F104" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G104" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="G104" s="15" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
       <c r="B105" s="10" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C105" s="27" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D105" s="9">
         <v>104</v>
@@ -4196,10 +4446,10 @@
         <v>13</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4208,7 +4458,7 @@
         <v>14</v>
       </c>
       <c r="C106" s="27" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D106" s="9">
         <v>105</v>
@@ -4220,262 +4470,266 @@
         <v>12</v>
       </c>
       <c r="G106" s="19" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
       <c r="B107" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D107" s="9">
         <v>106</v>
       </c>
       <c r="E107" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F107" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G107" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="44"/>
+      <c r="B108" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="F107" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G107" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="28"/>
-      <c r="B108" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C108" s="28" t="s">
-        <v>190</v>
+      <c r="C108" s="44" t="s">
+        <v>183</v>
       </c>
       <c r="D108" s="9">
         <v>107</v>
       </c>
       <c r="E108" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F108" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="29"/>
-      <c r="B109" s="29"/>
-      <c r="C109" s="29"/>
+      <c r="A109" s="45"/>
+      <c r="B109" s="45"/>
+      <c r="C109" s="45"/>
       <c r="D109" s="9">
         <v>108</v>
       </c>
       <c r="E109" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F109" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G109" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="51"/>
+      <c r="B110" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="F109" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G109" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="35"/>
-      <c r="B110" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C110" s="35">
+      <c r="C110" s="51">
         <v>485</v>
       </c>
       <c r="D110" s="9">
         <v>109</v>
       </c>
       <c r="E110" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F110" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G110" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="35"/>
-      <c r="B111" s="36"/>
-      <c r="C111" s="35"/>
+      <c r="A111" s="51"/>
+      <c r="B111" s="55"/>
+      <c r="C111" s="51"/>
       <c r="D111" s="9">
         <v>110</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F111" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="9"/>
       <c r="B112" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C112" s="19" t="s">
-        <v>11</v>
+        <v>206</v>
+      </c>
+      <c r="C112" s="28" t="s">
+        <v>192</v>
       </c>
       <c r="D112" s="9">
         <v>111</v>
       </c>
-      <c r="E112" s="15" t="s">
-        <v>74</v>
+      <c r="E112" s="28" t="s">
+        <v>191</v>
       </c>
       <c r="F112" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
       <c r="B113" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D113" s="9">
         <v>112</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
       <c r="B114" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C114" s="27" t="s">
-        <v>196</v>
+        <v>215</v>
+      </c>
+      <c r="C114" s="36" t="s">
+        <v>216</v>
       </c>
       <c r="D114" s="9">
         <v>113</v>
       </c>
-      <c r="E114" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="F114" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G114" s="15" t="s">
-        <v>65</v>
+      <c r="E114" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="F114" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="37" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
       <c r="B115" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C115" s="19" t="s">
-        <v>64</v>
+        <v>188</v>
+      </c>
+      <c r="C115" s="27" t="s">
+        <v>189</v>
       </c>
       <c r="D115" s="9">
         <v>114</v>
       </c>
-      <c r="E115" s="15" t="s">
-        <v>76</v>
+      <c r="E115" s="27" t="s">
+        <v>190</v>
       </c>
       <c r="F115" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G115" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
       <c r="B116" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>190</v>
+        <v>63</v>
       </c>
       <c r="D116" s="9">
         <v>115</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F116" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="9"/>
       <c r="B117" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="D117" s="9">
         <v>116</v>
       </c>
       <c r="E117" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F117" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G117" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="F117" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G117" s="15" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="28"/>
-      <c r="B118" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C118" s="35" t="s">
-        <v>11</v>
+      <c r="A118" s="9"/>
+      <c r="B118" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="D118" s="9">
         <v>117</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="F118" s="15" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="G118" s="15" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="29"/>
-      <c r="B119" s="36"/>
-      <c r="C119" s="35"/>
+      <c r="A119" s="44"/>
+      <c r="B119" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="C119" s="46" t="s">
+        <v>220</v>
+      </c>
       <c r="D119" s="9">
         <v>118</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F119" s="15" t="s">
         <v>12</v>
@@ -4485,18 +4739,14 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="9"/>
-      <c r="B120" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C120" s="19" t="s">
-        <v>83</v>
-      </c>
+      <c r="A120" s="45"/>
+      <c r="B120" s="55"/>
+      <c r="C120" s="51"/>
       <c r="D120" s="9">
         <v>119</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F120" s="15" t="s">
         <v>12</v>
@@ -4505,35 +4755,148 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="9"/>
-      <c r="B121" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C121" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D121" s="9">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="38"/>
+      <c r="B121" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="C121" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="D121" s="41">
         <v>120</v>
       </c>
-      <c r="E121" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="F121" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121" s="26" t="s">
-        <v>191</v>
+      <c r="E121" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="F121" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="G121" s="39" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="9"/>
+      <c r="B122" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C122" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D122" s="9">
+        <v>121</v>
+      </c>
+      <c r="E122" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="F122" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="52"/>
+      <c r="B123" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="C123" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="D123" s="9">
+        <v>122</v>
+      </c>
+      <c r="E123" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="F123" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="G123" s="33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="53"/>
+      <c r="B124" s="53"/>
+      <c r="C124" s="53"/>
+      <c r="D124" s="9">
+        <v>123</v>
+      </c>
+      <c r="E124" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="F124" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="G124" s="33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="53"/>
+      <c r="B125" s="53"/>
+      <c r="C125" s="53"/>
+      <c r="D125" s="9">
+        <v>124</v>
+      </c>
+      <c r="E125" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="F125" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="G125" s="33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="53"/>
+      <c r="B126" s="53"/>
+      <c r="C126" s="53"/>
+      <c r="D126" s="9">
+        <v>125</v>
+      </c>
+      <c r="E126" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="F126" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="G126" s="33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="54"/>
+      <c r="B127" s="54"/>
+      <c r="C127" s="54"/>
+      <c r="D127" s="9">
+        <v>126</v>
+      </c>
+      <c r="E127" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="F127" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="G127" s="33" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="45">
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="B123:B127"/>
+    <mergeCell ref="C123:C127"/>
     <mergeCell ref="B110:B111"/>
     <mergeCell ref="C110:C111"/>
     <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="A119:A120"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="A5:A7"/>
@@ -4571,7 +4934,7 @@
     <mergeCell ref="A97:A98"/>
     <mergeCell ref="A99:A100"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -4580,10 +4943,169 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="32">
+        <v>10</v>
+      </c>
+      <c r="C2" s="32">
+        <v>0</v>
+      </c>
+      <c r="D2" s="30">
+        <v>0</v>
+      </c>
+      <c r="E2" s="30">
+        <v>3</v>
+      </c>
+      <c r="F2" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="32">
+        <v>0</v>
+      </c>
+      <c r="C3" s="32">
+        <v>0</v>
+      </c>
+      <c r="D3" s="30">
+        <v>0</v>
+      </c>
+      <c r="E3" s="30">
+        <v>2</v>
+      </c>
+      <c r="F3" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="32">
+        <v>0</v>
+      </c>
+      <c r="C4" s="32">
+        <v>0</v>
+      </c>
+      <c r="D4" s="30">
+        <v>0</v>
+      </c>
+      <c r="E4" s="30">
+        <v>5</v>
+      </c>
+      <c r="F4" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="32">
+        <v>0</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0</v>
+      </c>
+      <c r="D5" s="30">
+        <v>0</v>
+      </c>
+      <c r="E5" s="30">
+        <v>4</v>
+      </c>
+      <c r="F5" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="32">
+        <v>0</v>
+      </c>
+      <c r="C6" s="32">
+        <v>0</v>
+      </c>
+      <c r="D6" s="30">
+        <v>0</v>
+      </c>
+      <c r="E6" s="30">
+        <v>3</v>
+      </c>
+      <c r="F6" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="32">
+        <v>0</v>
+      </c>
+      <c r="C7" s="32">
+        <v>0</v>
+      </c>
+      <c r="D7" s="30">
+        <v>0</v>
+      </c>
+      <c r="E7" s="30">
+        <v>1</v>
+      </c>
+      <c r="F7" s="30">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="25" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4609,10 +5131,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4620,10 +5142,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4631,10 +5153,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4642,10 +5164,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4653,10 +5175,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4664,10 +5186,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4675,10 +5197,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4686,54 +5208,76 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.81640625" customWidth="1"/>
-    <col min="2" max="2" width="20.26953125" customWidth="1"/>
+    <col min="2" max="2" width="41.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4741,7 +5285,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4749,15 +5293,15 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4765,75 +5309,87 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>194</v>
-      </c>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="42"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="42"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
